--- a/output/df_structured_charging_station1.xlsx
+++ b/output/df_structured_charging_station1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="126">
   <si>
     <t>timestamp</t>
   </si>
@@ -181,238 +181,217 @@
     <t>2022-02-19 01:00</t>
   </si>
   <si>
+    <t>2022-02-19 02:00</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Hyundai IONIQ5 77kWh']</t>
-  </si>
-  <si>
-    <t>['Others', 'Audi Q4', 'Others', 'Fiat 500 E']</t>
+    <t>['Hyundai KONA 64 kWh', 'Fiat 500 E', 'Others', 'VW ID.4']</t>
+  </si>
+  <si>
+    <t>['Fiat 500 E', 'Audi E-TRON', 'Opel MOKKA']</t>
   </si>
   <si>
     <t>['MINI Cooper SE']</t>
   </si>
   <si>
-    <t>['VW ID.3']</t>
-  </si>
-  <si>
-    <t>['Smart FORTWO', 'VW E-UP']</t>
-  </si>
-  <si>
-    <t>['VW E-UP', 'SKODA ENYAQ 58kWh']</t>
-  </si>
-  <si>
-    <t>['SKODA ENYAQ 58kWh', 'Dacia SPRING', 'Others', 'Smart FORTWO']</t>
+    <t>['Others', 'KIA EV6', 'Others', 'Others']</t>
+  </si>
+  <si>
+    <t>['Dacia SPRING', 'Hyundai KONA 39 kWh']</t>
+  </si>
+  <si>
+    <t>['Fiat 500 E', 'Renault TWINGO', 'Opel MOKKA']</t>
+  </si>
+  <si>
+    <t>['Others', 'Hyundai KONA 64 kWh', 'Fiat 500 E']</t>
+  </si>
+  <si>
+    <t>['VW ID.3', 'VW ID.3']</t>
+  </si>
+  <si>
+    <t>['Hyundai KONA 64 kWh']</t>
+  </si>
+  <si>
+    <t>['Audi E-TRON', 'Tesla MODEL 3', 'Tesla MODEL 3']</t>
+  </si>
+  <si>
+    <t>['Smart FORTWO', 'Polestar 2']</t>
   </si>
   <si>
     <t>['Others']</t>
   </si>
   <si>
-    <t>['Others', 'Renault TWINGO']</t>
-  </si>
-  <si>
-    <t>['MINI Cooper SE', 'Fiat 500 E']</t>
-  </si>
-  <si>
-    <t>['Audi E-TRON']</t>
-  </si>
-  <si>
-    <t>['SKODA ENYAQ 58kWh', 'Audi E-TRON', 'Others', 'Fiat 500 E']</t>
-  </si>
-  <si>
-    <t>['MINI Cooper SE', 'VW ID.3']</t>
-  </si>
-  <si>
-    <t>['Fiat 500 E', 'Hyundai KONA 64 kWh', 'Hyundai KONA 64 kWh']</t>
-  </si>
-  <si>
-    <t>['VW E-UP', 'VW ID.3']</t>
-  </si>
-  <si>
-    <t>['Others', 'VW E-UP']</t>
-  </si>
-  <si>
-    <t>['Hyundai IONIQ5 77kWh', 'Audi Q4']</t>
-  </si>
-  <si>
-    <t>['Fiat 500 E', 'TESLA MODEL Y', 'Hyundai IONIQ5 58kWh']</t>
-  </si>
-  <si>
-    <t>[0.1]</t>
-  </si>
-  <si>
-    <t>[0.2, 0.05, 0.4, 0.3]</t>
-  </si>
-  <si>
-    <t>[0.15]</t>
-  </si>
-  <si>
-    <t>[0.1, 0.15]</t>
+    <t>['Others', 'Fiat 500 E', 'Others']</t>
+  </si>
+  <si>
+    <t>['VW E-UP', 'VW ID.5', 'VW ID.4']</t>
+  </si>
+  <si>
+    <t>['SKODA ENYAQ 58kWh']</t>
+  </si>
+  <si>
+    <t>['KIA EV6']</t>
+  </si>
+  <si>
+    <t>['Others', 'Others', 'Hyundai IONIQ5 58kWh', 'Audi E-TRON']</t>
+  </si>
+  <si>
+    <t>['Others', 'Fiat 500 E', 'Fiat 500 E']</t>
+  </si>
+  <si>
+    <t>[0.25, 0.45, 0.3, 0.25]</t>
+  </si>
+  <si>
+    <t>[0.15, 0.35, 0.35]</t>
+  </si>
+  <si>
+    <t>[0.35]</t>
+  </si>
+  <si>
+    <t>[0.15, 0.15, 0.25, 0.2]</t>
+  </si>
+  <si>
+    <t>[0.2, 0.2]</t>
+  </si>
+  <si>
+    <t>[0.3, 0.2, 0.1]</t>
+  </si>
+  <si>
+    <t>[0.3, 0.35, 0.3]</t>
   </si>
   <si>
     <t>[0.1, 0.1]</t>
   </si>
   <si>
-    <t>[0.1, 0.35, 0.35, 0.35]</t>
-  </si>
-  <si>
-    <t>[0.25]</t>
-  </si>
-  <si>
-    <t>[0.3, 0.1]</t>
-  </si>
-  <si>
-    <t>[0.2, 0.2]</t>
-  </si>
-  <si>
-    <t>[0.25, 0.15, 0.2, 0.1]</t>
-  </si>
-  <si>
-    <t>[0.3, 0.4]</t>
-  </si>
-  <si>
-    <t>[0.4, 0.1]</t>
-  </si>
-  <si>
-    <t>[0.1, 0.05, 0.15]</t>
-  </si>
-  <si>
-    <t>[0.35, 0.1]</t>
-  </si>
-  <si>
-    <t>[0.25, 0.15]</t>
-  </si>
-  <si>
-    <t>[0.1, 0.3]</t>
-  </si>
-  <si>
-    <t>[0.25, 0.35, 0.3]</t>
+    <t>[0.45]</t>
+  </si>
+  <si>
+    <t>[0.15, 0.3, 0.2]</t>
+  </si>
+  <si>
+    <t>[0.25, 0.1]</t>
+  </si>
+  <si>
+    <t>[0.35, 0.15, 0.05]</t>
+  </si>
+  <si>
+    <t>[0.25, 0.2, 0.2]</t>
+  </si>
+  <si>
+    <t>[0.4]</t>
+  </si>
+  <si>
+    <t>[0.2, 0.35, 0.15, 0.2]</t>
+  </si>
+  <si>
+    <t>[0.2, 0.25, 0.15]</t>
+  </si>
+  <si>
+    <t>[0.8000000000000002, 0.9500000000000003, 0.8500000000000002, 0.65]</t>
+  </si>
+  <si>
+    <t>[0.7000000000000001, 1.0, 0.9000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.7500000000000001]</t>
+  </si>
+  <si>
+    <t>[0.8500000000000002, 0.8500000000000002, 0.9000000000000002, 0.7000000000000001]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.9500000000000003]</t>
+  </si>
+  <si>
+    <t>[0.65, 0.7500000000000001, 0.7500000000000001]</t>
+  </si>
+  <si>
+    <t>[0.9500000000000003, 0.7000000000000001, 0.65]</t>
+  </si>
+  <si>
+    <t>[0.9000000000000002, 0.9500000000000003]</t>
+  </si>
+  <si>
+    <t>[0.9000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.7500000000000001, 0.9500000000000003, 0.9000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.9500000000000003, 1.0]</t>
+  </si>
+  <si>
+    <t>[0.8500000000000002, 0.7000000000000001, 0.7000000000000001]</t>
+  </si>
+  <si>
+    <t>[0.8000000000000002, 0.7000000000000001, 0.7500000000000001]</t>
   </si>
   <si>
     <t>[0.8000000000000002]</t>
   </si>
   <si>
-    <t>[0.9000000000000002, 0.9000000000000002, 0.65, 0.7000000000000001]</t>
-  </si>
-  <si>
-    <t>[0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[0.9000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.8500000000000002, 0.8000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.9500000000000003, 0.7000000000000001]</t>
-  </si>
-  <si>
-    <t>[0.7000000000000001, 0.8500000000000002, 0.7500000000000001, 0.8000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.6]</t>
-  </si>
-  <si>
-    <t>[0.7500000000000001, 0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.9000000000000002]</t>
-  </si>
-  <si>
     <t>[0.7000000000000001]</t>
   </si>
   <si>
-    <t>[0.7500000000000001]</t>
-  </si>
-  <si>
-    <t>[0.9500000000000003]</t>
-  </si>
-  <si>
-    <t>[0.8500000000000002, 1.0, 0.8500000000000002, 0.7500000000000001]</t>
-  </si>
-  <si>
-    <t>[0.9500000000000003, 0.65]</t>
-  </si>
-  <si>
-    <t>[0.9000000000000002, 0.6]</t>
-  </si>
-  <si>
-    <t>[0.8500000000000002, 0.8000000000000002, 0.9000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.8500000000000002, 0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[0.9500000000000003, 0.9500000000000003]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.8000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.9000000000000002, 0.7000000000000001, 0.65]</t>
-  </si>
-  <si>
-    <t>[53.90000000000001]</t>
-  </si>
-  <si>
-    <t>[36.84138888888889, 65.11000000000001, 13.157638888888888, 9.600000000000001]</t>
-  </si>
-  <si>
-    <t>[20.230000000000004]</t>
-  </si>
-  <si>
-    <t>[43.500000000000014]</t>
-  </si>
-  <si>
-    <t>[13.200000000000005, 23.92]</t>
-  </si>
-  <si>
-    <t>[31.28000000000001, 34.800000000000004]</t>
-  </si>
-  <si>
-    <t>[34.800000000000004, 13.400000000000006, 21.052222222222227, 7.9200000000000035]</t>
-  </si>
-  <si>
-    <t>[18.420694444444443]</t>
-  </si>
-  <si>
-    <t>[23.683750000000007, 15.975000000000005]</t>
-  </si>
-  <si>
-    <t>[23.12, 16.800000000000004]</t>
-  </si>
-  <si>
-    <t>[31.578333333333337]</t>
-  </si>
-  <si>
-    <t>[26.315277777777784]</t>
-  </si>
-  <si>
-    <t>[68.00000000000003]</t>
-  </si>
-  <si>
-    <t>[34.80000000000001, 72.25, 34.20986111111112, 15.600000000000003]</t>
-  </si>
-  <si>
-    <t>[34.20986111111113, 5.325]</t>
-  </si>
-  <si>
-    <t>[14.450000000000006, 29.0]</t>
-  </si>
-  <si>
-    <t>[18.000000000000007, 48.00000000000001, 48.000000000000014]</t>
-  </si>
-  <si>
-    <t>[18.400000000000006, 43.500000000000014]</t>
-  </si>
-  <si>
-    <t>[36.8413888888889, 29.44000000000001]</t>
-  </si>
-  <si>
-    <t>[69.3, 38.30000000000001]</t>
-  </si>
-  <si>
-    <t>[15.600000000000005, 26.250000000000007, 20.3]</t>
+    <t>[0.9000000000000002, 1.0, 0.6, 0.9500000000000003]</t>
+  </si>
+  <si>
+    <t>[0.9000000000000002, 0.9000000000000002, 0.9000000000000002]</t>
+  </si>
+  <si>
+    <t>[35.20000000000001, 12.000000000000005, 28.946805555555567, 30.8]</t>
+  </si>
+  <si>
+    <t>[13.200000000000001, 55.25, 24.75000000000001]</t>
+  </si>
+  <si>
+    <t>[11.560000000000004]</t>
+  </si>
+  <si>
+    <t>[36.84138888888889, 51.80000000000001, 34.209861111111124, 26.315277777777776]</t>
+  </si>
+  <si>
+    <t>[21.44, 29.250000000000007]</t>
+  </si>
+  <si>
+    <t>[8.4, 11.715000000000002, 29.250000000000007]</t>
+  </si>
+  <si>
+    <t>[34.20986111111113, 22.400000000000006, 8.4]</t>
+  </si>
+  <si>
+    <t>[46.40000000000001, 49.30000000000002]</t>
+  </si>
+  <si>
+    <t>[28.800000000000015]</t>
+  </si>
+  <si>
+    <t>[51.00000000000001, 32.500000000000014, 35.00000000000001]</t>
+  </si>
+  <si>
+    <t>[12.320000000000006, 67.5]</t>
+  </si>
+  <si>
+    <t>[23.68375000000001]</t>
+  </si>
+  <si>
+    <t>[26.315277777777787, 13.200000000000001, 34.20986111111111]</t>
+  </si>
+  <si>
+    <t>[20.240000000000006, 38.5, 42.35]</t>
+  </si>
+  <si>
+    <t>[26.10000000000001]</t>
+  </si>
+  <si>
+    <t>[22.200000000000003]</t>
+  </si>
+  <si>
+    <t>[36.84138888888889, 34.20986111111111, 26.099999999999998, 63.75000000000002]</t>
+  </si>
+  <si>
+    <t>[36.84138888888889, 15.600000000000005, 18.000000000000007]</t>
   </si>
 </sst>
 </file>
@@ -770,7 +749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -801,16 +780,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -821,16 +800,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -841,16 +820,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -861,16 +840,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -881,16 +860,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -904,16 +883,16 @@
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="F7">
-        <v>53.90000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -927,13 +906,13 @@
         <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F8">
-        <v>124.7090277777778</v>
+        <v>106.9468055555556</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -947,13 +926,13 @@
         <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F9">
-        <v>20.23</v>
+        <v>93.20000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -961,19 +940,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="F10">
-        <v>43.50000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -981,19 +960,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
         <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F11">
-        <v>37.12</v>
+        <v>11.56</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1001,19 +980,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
         <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F12">
-        <v>66.08000000000001</v>
+        <v>149.1665277777778</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1021,19 +1000,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
         <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F13">
-        <v>77.17222222222223</v>
+        <v>50.69000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1041,16 +1020,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1061,19 +1040,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="F15">
-        <v>18.42069444444444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1081,16 +1060,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1101,19 +1080,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="F17">
-        <v>39.65875000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1121,19 +1100,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F18">
-        <v>39.92</v>
+        <v>49.36500000000001</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1144,16 +1123,16 @@
         <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F19">
-        <v>31.57833333333334</v>
+        <v>65.00986111111114</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1161,19 +1140,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E20" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F20">
-        <v>26.31527777777778</v>
+        <v>95.70000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1181,16 +1160,16 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1201,16 +1180,16 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1221,16 +1200,16 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1241,16 +1220,16 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1261,16 +1240,16 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1281,16 +1260,16 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1301,16 +1280,16 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1321,16 +1300,16 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1341,16 +1320,16 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1361,19 +1340,19 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="E30" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="F30">
-        <v>68.00000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1381,19 +1360,19 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="E31" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>28.80000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1401,19 +1380,19 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E32" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F32">
-        <v>156.8598611111111</v>
+        <v>118.5</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1421,19 +1400,19 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E33" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F33">
-        <v>39.53486111111113</v>
+        <v>79.82000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1444,16 +1423,16 @@
         <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E34" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F34">
-        <v>43.45</v>
+        <v>23.68375000000001</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1461,16 +1440,16 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1487,13 +1466,13 @@
         <v>86</v>
       </c>
       <c r="D36" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E36" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F36">
-        <v>114</v>
+        <v>73.72513888888889</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1507,13 +1486,13 @@
         <v>87</v>
       </c>
       <c r="D37" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E37" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F37">
-        <v>61.90000000000002</v>
+        <v>101.09</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1521,16 +1500,16 @@
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1541,19 +1520,19 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="D39" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="E39" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>26.10000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1561,16 +1540,16 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1581,19 +1560,19 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="D41" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="E41" t="s">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="F41">
-        <v>66.28138888888891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1604,16 +1583,16 @@
         <v>72</v>
       </c>
       <c r="C42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D42" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E42" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F42">
-        <v>107.6</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1624,16 +1603,16 @@
         <v>73</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D43" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E43" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F43">
-        <v>62.15000000000001</v>
+        <v>160.90125</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1641,19 +1620,19 @@
         <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="D44" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="E44" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>70.44138888888889</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1661,16 +1640,16 @@
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1681,16 +1660,16 @@
         <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1701,16 +1680,16 @@
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1721,16 +1700,16 @@
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1741,16 +1720,16 @@
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1761,18 +1740,38 @@
         <v>54</v>
       </c>
       <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" t="s">
+        <v>56</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
         <v>55</v>
       </c>
-      <c r="C50" t="s">
-        <v>55</v>
-      </c>
-      <c r="D50" t="s">
-        <v>55</v>
-      </c>
-      <c r="E50" t="s">
-        <v>55</v>
-      </c>
-      <c r="F50">
+      <c r="B51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51">
         <v>0</v>
       </c>
     </row>

--- a/output/df_structured_charging_station1.xlsx
+++ b/output/df_structured_charging_station1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="120">
   <si>
     <t>timestamp</t>
   </si>
@@ -187,211 +187,193 @@
     <t>[]</t>
   </si>
   <si>
-    <t>['Hyundai KONA 64 kWh', 'Fiat 500 E', 'Others', 'VW ID.4']</t>
-  </si>
-  <si>
-    <t>['Fiat 500 E', 'Audi E-TRON', 'Opel MOKKA']</t>
-  </si>
-  <si>
-    <t>['MINI Cooper SE']</t>
-  </si>
-  <si>
-    <t>['Others', 'KIA EV6', 'Others', 'Others']</t>
-  </si>
-  <si>
-    <t>['Dacia SPRING', 'Hyundai KONA 39 kWh']</t>
-  </si>
-  <si>
-    <t>['Fiat 500 E', 'Renault TWINGO', 'Opel MOKKA']</t>
-  </si>
-  <si>
-    <t>['Others', 'Hyundai KONA 64 kWh', 'Fiat 500 E']</t>
-  </si>
-  <si>
-    <t>['VW ID.3', 'VW ID.3']</t>
-  </si>
-  <si>
-    <t>['Hyundai KONA 64 kWh']</t>
-  </si>
-  <si>
-    <t>['Audi E-TRON', 'Tesla MODEL 3', 'Tesla MODEL 3']</t>
-  </si>
-  <si>
-    <t>['Smart FORTWO', 'Polestar 2']</t>
-  </si>
-  <si>
-    <t>['Others']</t>
-  </si>
-  <si>
-    <t>['Others', 'Fiat 500 E', 'Others']</t>
-  </si>
-  <si>
-    <t>['VW E-UP', 'VW ID.5', 'VW ID.4']</t>
-  </si>
-  <si>
-    <t>['SKODA ENYAQ 58kWh']</t>
-  </si>
-  <si>
-    <t>['KIA EV6']</t>
-  </si>
-  <si>
-    <t>['Others', 'Others', 'Hyundai IONIQ5 58kWh', 'Audi E-TRON']</t>
-  </si>
-  <si>
-    <t>['Others', 'Fiat 500 E', 'Fiat 500 E']</t>
-  </si>
-  <si>
-    <t>[0.25, 0.45, 0.3, 0.25]</t>
-  </si>
-  <si>
-    <t>[0.15, 0.35, 0.35]</t>
+    <t>['Fiat 500 E', 'Others']</t>
+  </si>
+  <si>
+    <t>['Opel CORSA', 'VW E-UP']</t>
+  </si>
+  <si>
+    <t>['Dacia SPRING', 'Peugeot 208', 'Others']</t>
+  </si>
+  <si>
+    <t>['Others', 'Fiat 500 E', 'Others', 'Others', 'Renault ZOE']</t>
+  </si>
+  <si>
+    <t>['Audi Q4', 'Others']</t>
+  </si>
+  <si>
+    <t>['TESLA MODEL Y', 'Others', 'TESLA MODEL Y']</t>
+  </si>
+  <si>
+    <t>['Opel CORSA', 'Others']</t>
+  </si>
+  <si>
+    <t>['Others', 'VW ID.5']</t>
+  </si>
+  <si>
+    <t>['Others', 'Tesla MODEL 3', 'SKODA ENYAQ 58kWh', 'Hyundai IONIQ5 58kWh']</t>
+  </si>
+  <si>
+    <t>['TESLA MODEL Y', 'Audi E-TRON']</t>
+  </si>
+  <si>
+    <t>['Others', 'Others']</t>
+  </si>
+  <si>
+    <t>['SKODA ENYAQ 58kWh', 'SKODA ENYAQ 77kWh', 'Fiat 500 E']</t>
+  </si>
+  <si>
+    <t>['Fiat 500 E', 'Fiat 500 E', 'Renault ZOE']</t>
+  </si>
+  <si>
+    <t>['Hyundai KONA 39 kWh', 'MINI Cooper SE']</t>
+  </si>
+  <si>
+    <t>['TESLA MODEL Y', 'Others', 'Others', 'Tesla MODEL 3']</t>
+  </si>
+  <si>
+    <t>['Fiat 500 E']</t>
+  </si>
+  <si>
+    <t>[0.3, 0.4]</t>
+  </si>
+  <si>
+    <t>[0.15, 0.2]</t>
+  </si>
+  <si>
+    <t>[0.2, 0.4, 0.4]</t>
+  </si>
+  <si>
+    <t>[0.3, 0.2, 0.25, 0.4, 0.25]</t>
+  </si>
+  <si>
+    <t>[0.4, 0.45]</t>
+  </si>
+  <si>
+    <t>[0.35, 0.25, 0.2]</t>
+  </si>
+  <si>
+    <t>[0.3, 0.2]</t>
+  </si>
+  <si>
+    <t>[0.15, 0.35, 0.25, 0.1]</t>
+  </si>
+  <si>
+    <t>[0.05, 0.35]</t>
+  </si>
+  <si>
+    <t>[0.1, 0.3]</t>
+  </si>
+  <si>
+    <t>[0.2, 0.25, 0.3]</t>
+  </si>
+  <si>
+    <t>[0.2, 0.3, 0.2]</t>
+  </si>
+  <si>
+    <t>[0.05, 0.2]</t>
+  </si>
+  <si>
+    <t>[0.05, 0.25, 0.05, 0.05]</t>
   </si>
   <si>
     <t>[0.35]</t>
   </si>
   <si>
-    <t>[0.15, 0.15, 0.25, 0.2]</t>
-  </si>
-  <si>
-    <t>[0.2, 0.2]</t>
-  </si>
-  <si>
-    <t>[0.3, 0.2, 0.1]</t>
-  </si>
-  <si>
-    <t>[0.3, 0.35, 0.3]</t>
-  </si>
-  <si>
-    <t>[0.1, 0.1]</t>
-  </si>
-  <si>
-    <t>[0.45]</t>
-  </si>
-  <si>
-    <t>[0.15, 0.3, 0.2]</t>
-  </si>
-  <si>
-    <t>[0.25, 0.1]</t>
-  </si>
-  <si>
-    <t>[0.35, 0.15, 0.05]</t>
-  </si>
-  <si>
-    <t>[0.25, 0.2, 0.2]</t>
-  </si>
-  <si>
-    <t>[0.4]</t>
-  </si>
-  <si>
-    <t>[0.2, 0.35, 0.15, 0.2]</t>
-  </si>
-  <si>
-    <t>[0.2, 0.25, 0.15]</t>
-  </si>
-  <si>
-    <t>[0.8000000000000002, 0.9500000000000003, 0.8500000000000002, 0.65]</t>
-  </si>
-  <si>
-    <t>[0.7000000000000001, 1.0, 0.9000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.7500000000000001]</t>
-  </si>
-  <si>
-    <t>[0.8500000000000002, 0.8500000000000002, 0.9000000000000002, 0.7000000000000001]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.9500000000000003]</t>
-  </si>
-  <si>
-    <t>[0.65, 0.7500000000000001, 0.7500000000000001]</t>
-  </si>
-  <si>
-    <t>[0.9500000000000003, 0.7000000000000001, 0.65]</t>
-  </si>
-  <si>
-    <t>[0.9000000000000002, 0.9500000000000003]</t>
+    <t>[0.65, 0.7000000000000001]</t>
+  </si>
+  <si>
+    <t>[0.9500000000000003, 0.9000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.9000000000000002, 0.8000000000000002, 1.0]</t>
+  </si>
+  <si>
+    <t>[0.9500000000000003, 0.7500000000000001, 0.65, 1.0, 0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[0.7000000000000001, 0.6]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.9000000000000002, 0.7500000000000001]</t>
+  </si>
+  <si>
+    <t>[0.9000000000000002, 0.9000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.8500000000000002, 0.9500000000000003]</t>
+  </si>
+  <si>
+    <t>[0.7500000000000001, 0.9500000000000003, 0.8500000000000002, 0.9000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.7000000000000001, 0.8000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.8000000000000002, 0.7500000000000001]</t>
+  </si>
+  <si>
+    <t>[0.9000000000000002, 1.0, 0.9500000000000003]</t>
+  </si>
+  <si>
+    <t>[0.8500000000000002, 0.8000000000000002, 0.9000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.9500000000000003, 0.9500000000000003]</t>
+  </si>
+  <si>
+    <t>[0.7500000000000001, 0.9500000000000003, 0.7000000000000001, 1.0]</t>
   </si>
   <si>
     <t>[0.9000000000000002]</t>
   </si>
   <si>
-    <t>[0.7500000000000001, 0.9500000000000003, 0.9000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.9500000000000003, 1.0]</t>
-  </si>
-  <si>
-    <t>[0.8500000000000002, 0.7000000000000001, 0.7000000000000001]</t>
-  </si>
-  <si>
-    <t>[0.8000000000000002, 0.7000000000000001, 0.7500000000000001]</t>
-  </si>
-  <si>
-    <t>[0.8000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.7000000000000001]</t>
-  </si>
-  <si>
-    <t>[0.9000000000000002, 1.0, 0.6, 0.9500000000000003]</t>
-  </si>
-  <si>
-    <t>[0.9000000000000002, 0.9000000000000002, 0.9000000000000002]</t>
-  </si>
-  <si>
-    <t>[35.20000000000001, 12.000000000000005, 28.946805555555567, 30.8]</t>
-  </si>
-  <si>
-    <t>[13.200000000000001, 55.25, 24.75000000000001]</t>
-  </si>
-  <si>
-    <t>[11.560000000000004]</t>
-  </si>
-  <si>
-    <t>[36.84138888888889, 51.80000000000001, 34.209861111111124, 26.315277777777776]</t>
-  </si>
-  <si>
-    <t>[21.44, 29.250000000000007]</t>
-  </si>
-  <si>
-    <t>[8.4, 11.715000000000002, 29.250000000000007]</t>
-  </si>
-  <si>
-    <t>[34.20986111111113, 22.400000000000006, 8.4]</t>
-  </si>
-  <si>
-    <t>[46.40000000000001, 49.30000000000002]</t>
-  </si>
-  <si>
-    <t>[28.800000000000015]</t>
-  </si>
-  <si>
-    <t>[51.00000000000001, 32.500000000000014, 35.00000000000001]</t>
-  </si>
-  <si>
-    <t>[12.320000000000006, 67.5]</t>
-  </si>
-  <si>
-    <t>[23.68375000000001]</t>
-  </si>
-  <si>
-    <t>[26.315277777777787, 13.200000000000001, 34.20986111111111]</t>
-  </si>
-  <si>
-    <t>[20.240000000000006, 38.5, 42.35]</t>
-  </si>
-  <si>
-    <t>[26.10000000000001]</t>
-  </si>
-  <si>
-    <t>[22.200000000000003]</t>
-  </si>
-  <si>
-    <t>[36.84138888888889, 34.20986111111111, 26.099999999999998, 63.75000000000002]</t>
-  </si>
-  <si>
-    <t>[36.84138888888889, 15.600000000000005, 18.000000000000007]</t>
+    <t>[8.4, 15.789166666666668]</t>
+  </si>
+  <si>
+    <t>[36.000000000000014, 25.760000000000005]</t>
+  </si>
+  <si>
+    <t>[18.760000000000005, 18.000000000000007, 31.57833333333333]</t>
+  </si>
+  <si>
+    <t>[34.20986111111113, 13.200000000000001, 21.052222222222223, 31.57833333333333, 31.20000000000001]</t>
+  </si>
+  <si>
+    <t>[22.98, 7.8945833333333315]</t>
+  </si>
+  <si>
+    <t>[48.75, 34.209861111111124, 41.25]</t>
+  </si>
+  <si>
+    <t>[33.75000000000001, 36.84138888888889]</t>
+  </si>
+  <si>
+    <t>[28.946805555555567, 57.750000000000014]</t>
+  </si>
+  <si>
+    <t>[31.578333333333337, 30.000000000000014, 34.80000000000001, 46.40000000000001]</t>
+  </si>
+  <si>
+    <t>[48.75, 38.250000000000014]</t>
+  </si>
+  <si>
+    <t>[36.84138888888889, 23.683750000000007]</t>
+  </si>
+  <si>
+    <t>[40.60000000000001, 57.75, 15.600000000000009]</t>
+  </si>
+  <si>
+    <t>[15.600000000000003, 12.000000000000005, 36.400000000000006]</t>
+  </si>
+  <si>
+    <t>[35.10000000000001, 21.675000000000004]</t>
+  </si>
+  <si>
+    <t>[52.50000000000001, 36.8413888888889, 34.20986111111111, 47.5]</t>
+  </si>
+  <si>
+    <t>[13.200000000000006]</t>
   </si>
 </sst>
 </file>
@@ -880,19 +862,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>24.18916666666667</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -900,19 +882,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F8">
-        <v>106.9468055555556</v>
+        <v>61.76000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -920,19 +902,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F9">
-        <v>93.20000000000002</v>
+        <v>68.33833333333334</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -960,19 +942,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="F11">
-        <v>11.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -983,16 +965,16 @@
         <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F12">
-        <v>149.1665277777778</v>
+        <v>131.2404166666667</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1003,16 +985,16 @@
         <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F13">
-        <v>50.69000000000001</v>
+        <v>30.87458333333333</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1080,19 +1062,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>124.2098611111111</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1100,19 +1082,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F18">
-        <v>49.36500000000001</v>
+        <v>70.5913888888889</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1120,19 +1102,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F19">
-        <v>65.00986111111114</v>
+        <v>86.69680555555558</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1140,19 +1122,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="F20">
-        <v>95.70000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1360,19 +1342,19 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="E31" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="F31">
-        <v>28.80000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1380,19 +1362,19 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E32" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F32">
-        <v>118.5</v>
+        <v>142.7783333333334</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1400,19 +1382,19 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E33" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F33">
-        <v>79.82000000000001</v>
+        <v>87.00000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1420,19 +1402,19 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E34" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F34">
-        <v>23.68375000000001</v>
+        <v>60.5251388888889</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1460,19 +1442,19 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E36" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F36">
-        <v>73.72513888888889</v>
+        <v>113.95</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1480,19 +1462,19 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D37" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E37" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F37">
-        <v>101.09</v>
+        <v>64.00000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1520,19 +1502,19 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="D39" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="E39" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="F39">
-        <v>26.10000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1560,19 +1542,19 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C41" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="D41" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="E41" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>56.77500000000001</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1580,19 +1562,19 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="D42" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="E42" t="s">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="F42">
-        <v>22.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1600,19 +1582,19 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D43" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E43" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F43">
-        <v>160.90125</v>
+        <v>171.05125</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1620,19 +1602,19 @@
         <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D44" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E44" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F44">
-        <v>70.44138888888889</v>
+        <v>13.20000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:6">

--- a/output/df_structured_charging_station1.xlsx
+++ b/output/df_structured_charging_station1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="132">
   <si>
     <t>timestamp</t>
   </si>
@@ -187,193 +187,229 @@
     <t>[]</t>
   </si>
   <si>
-    <t>['Fiat 500 E', 'Others']</t>
-  </si>
-  <si>
-    <t>['Opel CORSA', 'VW E-UP']</t>
-  </si>
-  <si>
-    <t>['Dacia SPRING', 'Peugeot 208', 'Others']</t>
-  </si>
-  <si>
-    <t>['Others', 'Fiat 500 E', 'Others', 'Others', 'Renault ZOE']</t>
-  </si>
-  <si>
-    <t>['Audi Q4', 'Others']</t>
-  </si>
-  <si>
-    <t>['TESLA MODEL Y', 'Others', 'TESLA MODEL Y']</t>
-  </si>
-  <si>
-    <t>['Opel CORSA', 'Others']</t>
+    <t>['Others', 'Hyundai KONA 64 kWh']</t>
+  </si>
+  <si>
+    <t>['Others', 'VW ID.3', 'Hyundai KONA 64 kWh']</t>
+  </si>
+  <si>
+    <t>['Fiat 500 E', 'Tesla MODEL 3', 'Others']</t>
+  </si>
+  <si>
+    <t>['VW ID.4', 'TESLA MODEL Y']</t>
+  </si>
+  <si>
+    <t>['Others', 'Opel CORSA', 'Others', 'VW ID.3', 'Others']</t>
+  </si>
+  <si>
+    <t>['Audi E-TRON', 'Others']</t>
+  </si>
+  <si>
+    <t>['Others', 'Opel CORSA']</t>
   </si>
   <si>
     <t>['Others', 'VW ID.5']</t>
   </si>
   <si>
-    <t>['Others', 'Tesla MODEL 3', 'SKODA ENYAQ 58kWh', 'Hyundai IONIQ5 58kWh']</t>
-  </si>
-  <si>
-    <t>['TESLA MODEL Y', 'Audi E-TRON']</t>
-  </si>
-  <si>
-    <t>['Others', 'Others']</t>
-  </si>
-  <si>
-    <t>['SKODA ENYAQ 58kWh', 'SKODA ENYAQ 77kWh', 'Fiat 500 E']</t>
-  </si>
-  <si>
-    <t>['Fiat 500 E', 'Fiat 500 E', 'Renault ZOE']</t>
-  </si>
-  <si>
-    <t>['Hyundai KONA 39 kWh', 'MINI Cooper SE']</t>
-  </si>
-  <si>
-    <t>['TESLA MODEL Y', 'Others', 'Others', 'Tesla MODEL 3']</t>
-  </si>
-  <si>
-    <t>['Fiat 500 E']</t>
-  </si>
-  <si>
-    <t>[0.3, 0.4]</t>
-  </si>
-  <si>
-    <t>[0.15, 0.2]</t>
-  </si>
-  <si>
-    <t>[0.2, 0.4, 0.4]</t>
-  </si>
-  <si>
-    <t>[0.3, 0.2, 0.25, 0.4, 0.25]</t>
-  </si>
-  <si>
-    <t>[0.4, 0.45]</t>
-  </si>
-  <si>
-    <t>[0.35, 0.25, 0.2]</t>
-  </si>
-  <si>
-    <t>[0.3, 0.2]</t>
-  </si>
-  <si>
-    <t>[0.15, 0.35, 0.25, 0.1]</t>
-  </si>
-  <si>
-    <t>[0.05, 0.35]</t>
-  </si>
-  <si>
-    <t>[0.1, 0.3]</t>
-  </si>
-  <si>
-    <t>[0.2, 0.25, 0.3]</t>
-  </si>
-  <si>
-    <t>[0.2, 0.3, 0.2]</t>
-  </si>
-  <si>
-    <t>[0.05, 0.2]</t>
-  </si>
-  <si>
-    <t>[0.05, 0.25, 0.05, 0.05]</t>
-  </si>
-  <si>
-    <t>[0.35]</t>
-  </si>
-  <si>
-    <t>[0.65, 0.7000000000000001]</t>
-  </si>
-  <si>
-    <t>[0.9500000000000003, 0.9000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.9000000000000002, 0.8000000000000002, 1.0]</t>
-  </si>
-  <si>
-    <t>[0.9500000000000003, 0.7500000000000001, 0.65, 1.0, 0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[0.7000000000000001, 0.6]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.9000000000000002, 0.7500000000000001]</t>
-  </si>
-  <si>
-    <t>[0.9000000000000002, 0.9000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.8500000000000002, 0.9500000000000003]</t>
-  </si>
-  <si>
-    <t>[0.7500000000000001, 0.9500000000000003, 0.8500000000000002, 0.9000000000000002]</t>
+    <t>['Tesla MODEL 3']</t>
+  </si>
+  <si>
+    <t>['MINI Cooper SE', 'Renault ZOE', 'Others', 'Fiat 500 E']</t>
+  </si>
+  <si>
+    <t>['VW ID.3', 'Audi E-TRON']</t>
+  </si>
+  <si>
+    <t>['VW ID.5']</t>
+  </si>
+  <si>
+    <t>['MINI Cooper SE']</t>
+  </si>
+  <si>
+    <t>['SKODA ENYAQ 77kWh']</t>
+  </si>
+  <si>
+    <t>['VW ID.5', 'Renault ZOE']</t>
+  </si>
+  <si>
+    <t>['Tesla MODEL 3', 'Tesla MODEL 3', 'Tesla MODEL 3']</t>
+  </si>
+  <si>
+    <t>['Tesla MODEL 3', 'Others']</t>
+  </si>
+  <si>
+    <t>['Dacia SPRING', 'Fiat 500 E']</t>
+  </si>
+  <si>
+    <t>['VW ID.4', 'VW ID.3', 'Others']</t>
+  </si>
+  <si>
+    <t>[0.4, 0.3]</t>
+  </si>
+  <si>
+    <t>[0.15, 0.1, 0.3]</t>
+  </si>
+  <si>
+    <t>[0.4, 0.05, 0.1]</t>
+  </si>
+  <si>
+    <t>[0.25, 0.25]</t>
+  </si>
+  <si>
+    <t>[0.4, 0.25, 0.15, 0.2, 0.3]</t>
+  </si>
+  <si>
+    <t>[0.4, 0.25]</t>
+  </si>
+  <si>
+    <t>[0.3, 0.3]</t>
+  </si>
+  <si>
+    <t>[0.05, 0.3]</t>
+  </si>
+  <si>
+    <t>[0.3]</t>
+  </si>
+  <si>
+    <t>[0.15, 0.25, 0.35, 0.25]</t>
+  </si>
+  <si>
+    <t>[0.2, 0.15]</t>
+  </si>
+  <si>
+    <t>[0.25]</t>
+  </si>
+  <si>
+    <t>[0.15]</t>
+  </si>
+  <si>
+    <t>[0.2, 0.35]</t>
+  </si>
+  <si>
+    <t>[0.25, 0.4999999999999999, 0.45]</t>
+  </si>
+  <si>
+    <t>[0.2, 0.45]</t>
+  </si>
+  <si>
+    <t>[0.15, 0.25]</t>
+  </si>
+  <si>
+    <t>[0.1, 0.1, 0.1]</t>
+  </si>
+  <si>
+    <t>[0.7500000000000001, 0.7000000000000001]</t>
+  </si>
+  <si>
+    <t>[0.7000000000000001, 0.8500000000000002, 0.7000000000000001]</t>
+  </si>
+  <si>
+    <t>[0.8500000000000002, 0.9500000000000003, 0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[0.8500000000000002, 0.7000000000000001]</t>
+  </si>
+  <si>
+    <t>[0.9500000000000003, 0.7000000000000001, 0.9000000000000002, 0.8000000000000002, 0.7500000000000001]</t>
   </si>
   <si>
     <t>[0.7000000000000001, 0.8000000000000002]</t>
   </si>
   <si>
-    <t>[0.8000000000000002, 0.7500000000000001]</t>
-  </si>
-  <si>
-    <t>[0.9000000000000002, 1.0, 0.9500000000000003]</t>
-  </si>
-  <si>
-    <t>[0.8500000000000002, 0.8000000000000002, 0.9000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.9500000000000003, 0.9500000000000003]</t>
-  </si>
-  <si>
-    <t>[0.7500000000000001, 0.9500000000000003, 0.7000000000000001, 1.0]</t>
+    <t>[0.8500000000000002, 0.7500000000000001]</t>
+  </si>
+  <si>
+    <t>[0.7000000000000001, 0.7000000000000001]</t>
+  </si>
+  <si>
+    <t>[0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[0.9000000000000002, 0.7500000000000001, 0.7500000000000001, 0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[0.65, 0.8000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.7500000000000001]</t>
   </si>
   <si>
     <t>[0.9000000000000002]</t>
   </si>
   <si>
-    <t>[8.4, 15.789166666666668]</t>
-  </si>
-  <si>
-    <t>[36.000000000000014, 25.760000000000005]</t>
-  </si>
-  <si>
-    <t>[18.760000000000005, 18.000000000000007, 31.57833333333333]</t>
-  </si>
-  <si>
-    <t>[34.20986111111113, 13.200000000000001, 21.052222222222223, 31.57833333333333, 31.20000000000001]</t>
-  </si>
-  <si>
-    <t>[22.98, 7.8945833333333315]</t>
-  </si>
-  <si>
-    <t>[48.75, 34.209861111111124, 41.25]</t>
-  </si>
-  <si>
-    <t>[33.75000000000001, 36.84138888888889]</t>
-  </si>
-  <si>
-    <t>[28.946805555555567, 57.750000000000014]</t>
-  </si>
-  <si>
-    <t>[31.578333333333337, 30.000000000000014, 34.80000000000001, 46.40000000000001]</t>
-  </si>
-  <si>
-    <t>[48.75, 38.250000000000014]</t>
-  </si>
-  <si>
-    <t>[36.84138888888889, 23.683750000000007]</t>
-  </si>
-  <si>
-    <t>[40.60000000000001, 57.75, 15.600000000000009]</t>
-  </si>
-  <si>
-    <t>[15.600000000000003, 12.000000000000005, 36.400000000000006]</t>
-  </si>
-  <si>
-    <t>[35.10000000000001, 21.675000000000004]</t>
-  </si>
-  <si>
-    <t>[52.50000000000001, 36.8413888888889, 34.20986111111111, 47.5]</t>
-  </si>
-  <si>
-    <t>[13.200000000000006]</t>
+    <t>[0.65]</t>
+  </si>
+  <si>
+    <t>[0.7500000000000001, 0.7500000000000001]</t>
+  </si>
+  <si>
+    <t>[0.8500000000000002, 0.9000000000000002, 0.65]</t>
+  </si>
+  <si>
+    <t>[0.9500000000000003, 0.6]</t>
+  </si>
+  <si>
+    <t>[0.7000000000000001, 0.9000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.7000000000000001, 0.9500000000000003, 1.0]</t>
+  </si>
+  <si>
+    <t>[18.420694444444447, 25.600000000000005]</t>
+  </si>
+  <si>
+    <t>[28.946805555555557, 43.500000000000014, 25.600000000000005]</t>
+  </si>
+  <si>
+    <t>[10.800000000000004, 45.000000000000014, 39.47291666666668]</t>
+  </si>
+  <si>
+    <t>[46.20000000000002, 33.75000000000001]</t>
+  </si>
+  <si>
+    <t>[28.946805555555567, 20.250000000000004, 39.47291666666668, 34.800000000000004, 23.683750000000007]</t>
+  </si>
+  <si>
+    <t>[25.500000000000004, 28.946805555555564]</t>
+  </si>
+  <si>
+    <t>[28.946805555555567, 20.250000000000007]</t>
+  </si>
+  <si>
+    <t>[34.20986111111111, 30.800000000000004]</t>
+  </si>
+  <si>
+    <t>[27.500000000000014]</t>
+  </si>
+  <si>
+    <t>[21.675000000000004, 26.000000000000007, 21.052222222222227, 14.400000000000006]</t>
+  </si>
+  <si>
+    <t>[26.1, 55.250000000000014]</t>
+  </si>
+  <si>
+    <t>[34.65000000000001]</t>
+  </si>
+  <si>
+    <t>[18.785000000000007]</t>
+  </si>
+  <si>
+    <t>[38.5]</t>
+  </si>
+  <si>
+    <t>[42.35, 20.800000000000008]</t>
+  </si>
+  <si>
+    <t>[30.00000000000001, 20.000000000000018, 10.0]</t>
+  </si>
+  <si>
+    <t>[37.500000000000014, 7.8945833333333315]</t>
+  </si>
+  <si>
+    <t>[14.740000000000002, 15.600000000000005]</t>
+  </si>
+  <si>
+    <t>[46.20000000000001, 49.30000000000002, 47.3675]</t>
   </si>
 </sst>
 </file>
@@ -865,16 +901,16 @@
         <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="F7">
-        <v>24.18916666666667</v>
+        <v>44.02069444444445</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -885,16 +921,16 @@
         <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F8">
-        <v>61.76000000000002</v>
+        <v>98.04680555555558</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -905,16 +941,16 @@
         <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="F9">
-        <v>68.33833333333334</v>
+        <v>95.2729166666667</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -965,16 +1001,16 @@
         <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E12" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F12">
-        <v>131.2404166666667</v>
+        <v>79.95000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -985,16 +1021,16 @@
         <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E13" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="F13">
-        <v>30.87458333333333</v>
+        <v>147.1534722222223</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1065,16 +1101,16 @@
         <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E17" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F17">
-        <v>124.2098611111111</v>
+        <v>54.44680555555557</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1085,16 +1121,16 @@
         <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F18">
-        <v>70.5913888888889</v>
+        <v>49.19680555555557</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1102,19 +1138,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="F19">
-        <v>86.69680555555558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1122,19 +1158,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>65.00986111111112</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1142,19 +1178,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>27.50000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1362,19 +1398,19 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E32" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="F32">
-        <v>142.7783333333334</v>
+        <v>83.12722222222224</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1382,19 +1418,19 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D33" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E33" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F33">
-        <v>87.00000000000001</v>
+        <v>81.35000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1402,19 +1438,19 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E34" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="F34">
-        <v>60.5251388888889</v>
+        <v>34.65000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1422,19 +1458,19 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="E35" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>18.78500000000001</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1442,19 +1478,19 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D36" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E36" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="F36">
-        <v>113.95</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1462,19 +1498,19 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D37" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E37" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="F37">
-        <v>64.00000000000001</v>
+        <v>63.15000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1482,19 +1518,19 @@
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="D38" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="E38" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>60.00000000000003</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1542,19 +1578,19 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D41" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E41" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F41">
-        <v>56.77500000000001</v>
+        <v>45.39458333333334</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1562,19 +1598,19 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="D42" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="E42" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>30.34000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1582,19 +1618,19 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D43" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E43" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="F43">
-        <v>171.05125</v>
+        <v>142.8675</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1602,19 +1638,19 @@
         <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D44" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="E44" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="F44">
-        <v>13.20000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6">

--- a/output/df_structured_charging_station1.xlsx
+++ b/output/df_structured_charging_station1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="250">
   <si>
     <t>timestamp</t>
   </si>
@@ -184,232 +184,586 @@
     <t>2022-02-19 02:00</t>
   </si>
   <si>
+    <t>2022-02-19 03:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 04:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 05:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 06:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 07:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 08:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 09:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 10:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 11:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 12:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 13:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 14:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 15:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 16:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 17:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 18:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 19:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 20:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 21:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 22:00</t>
+  </si>
+  <si>
+    <t>2022-02-19 23:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 00:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 01:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 02:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 03:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 04:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 05:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 06:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 07:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 08:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 09:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 10:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 11:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 12:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 13:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 14:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 15:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 16:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 17:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 18:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 19:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 20:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 21:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 22:00</t>
+  </si>
+  <si>
+    <t>2022-02-20 23:00</t>
+  </si>
+  <si>
+    <t>2022-02-21 00:00</t>
+  </si>
+  <si>
+    <t>2022-02-21 01:00</t>
+  </si>
+  <si>
+    <t>2022-02-21 02:00</t>
+  </si>
+  <si>
+    <t>2022-02-21 03:00</t>
+  </si>
+  <si>
+    <t>2022-02-21 04:00</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Others', 'Hyundai KONA 64 kWh']</t>
-  </si>
-  <si>
-    <t>['Others', 'VW ID.3', 'Hyundai KONA 64 kWh']</t>
-  </si>
-  <si>
-    <t>['Fiat 500 E', 'Tesla MODEL 3', 'Others']</t>
-  </si>
-  <si>
-    <t>['VW ID.4', 'TESLA MODEL Y']</t>
-  </si>
-  <si>
-    <t>['Others', 'Opel CORSA', 'Others', 'VW ID.3', 'Others']</t>
-  </si>
-  <si>
-    <t>['Audi E-TRON', 'Others']</t>
-  </si>
-  <si>
-    <t>['Others', 'Opel CORSA']</t>
-  </si>
-  <si>
-    <t>['Others', 'VW ID.5']</t>
-  </si>
-  <si>
-    <t>['Tesla MODEL 3']</t>
-  </si>
-  <si>
-    <t>['MINI Cooper SE', 'Renault ZOE', 'Others', 'Fiat 500 E']</t>
-  </si>
-  <si>
-    <t>['VW ID.3', 'Audi E-TRON']</t>
-  </si>
-  <si>
-    <t>['VW ID.5']</t>
-  </si>
-  <si>
-    <t>['MINI Cooper SE']</t>
+    <t>['Others']</t>
+  </si>
+  <si>
+    <t>['Audi E-TRON', 'SKODA ENYAQ 58kWh', 'Others']</t>
+  </si>
+  <si>
+    <t>['Others', 'SKODA ENYAQ 58kWh']</t>
+  </si>
+  <si>
+    <t>['VW E-UP']</t>
+  </si>
+  <si>
+    <t>['TESLA MODEL Y', 'Peugeot 208']</t>
+  </si>
+  <si>
+    <t>['Fiat 500 E', 'Hyundai KONA 64 kWh', 'Hyundai KONA 39 kWh']</t>
+  </si>
+  <si>
+    <t>['TESLA MODEL Y']</t>
+  </si>
+  <si>
+    <t>['Fiat 500 E', 'Others']</t>
+  </si>
+  <si>
+    <t>['Opel MOKKA', 'Others', 'Others']</t>
+  </si>
+  <si>
+    <t>['Smart FORTWO']</t>
+  </si>
+  <si>
+    <t>['Renault ZOE', 'Hyundai KONA 39 kWh']</t>
+  </si>
+  <si>
+    <t>['Audi E-TRON', 'VW E-UP', 'Opel MOKKA', 'Others']</t>
+  </si>
+  <si>
+    <t>['VW E-UP', 'Tesla MODEL 3']</t>
+  </si>
+  <si>
+    <t>['Others', 'Tesla MODEL 3']</t>
+  </si>
+  <si>
+    <t>['Fiat 500 E', 'Fiat 500 E']</t>
+  </si>
+  <si>
+    <t>['Hyundai KONA 64 kWh']</t>
+  </si>
+  <si>
+    <t>['Peugeot 208', 'Others']</t>
+  </si>
+  <si>
+    <t>['VW ID.5', 'Others', 'Others']</t>
+  </si>
+  <si>
+    <t>['Dacia SPRING']</t>
+  </si>
+  <si>
+    <t>['VW ID.4', 'Smart FORTWO', 'Others', 'Renault ZOE', 'MINI Cooper SE']</t>
+  </si>
+  <si>
+    <t>['SKODA ENYAQ 58kWh']</t>
+  </si>
+  <si>
+    <t>['Others', 'Others']</t>
+  </si>
+  <si>
+    <t>['VW E-UP', 'Audi Q4']</t>
+  </si>
+  <si>
+    <t>['Others', 'Smart FORTWO']</t>
+  </si>
+  <si>
+    <t>['Opel MOKKA', 'Others']</t>
+  </si>
+  <si>
+    <t>['Polestar 2', 'Others']</t>
+  </si>
+  <si>
+    <t>['Others', 'VW ID.3', 'Others']</t>
+  </si>
+  <si>
+    <t>['Peugeot 208']</t>
+  </si>
+  <si>
+    <t>['Others', 'KIA EV6']</t>
+  </si>
+  <si>
+    <t>['Fiat 500 E', 'Audi Q4', 'VW E-UP', 'Others']</t>
+  </si>
+  <si>
+    <t>['Hyundai KONA 39 kWh', 'VW ID.3', 'Smart FORTWO']</t>
+  </si>
+  <si>
+    <t>['Hyundai KONA 64 kWh', 'Smart FORTWO', 'VW E-UP', 'SKODA ENYAQ 77kWh']</t>
+  </si>
+  <si>
+    <t>['Fiat 500 E']</t>
+  </si>
+  <si>
+    <t>['TESLA MODEL Y', 'Hyundai KONA 39 kWh', 'Others']</t>
+  </si>
+  <si>
+    <t>['KIA EV6', 'Tesla MODEL 3']</t>
+  </si>
+  <si>
+    <t>['SKODA ENYAQ 77kWh', 'Smart FORTWO']</t>
   </si>
   <si>
     <t>['SKODA ENYAQ 77kWh']</t>
   </si>
   <si>
-    <t>['VW ID.5', 'Renault ZOE']</t>
-  </si>
-  <si>
-    <t>['Tesla MODEL 3', 'Tesla MODEL 3', 'Tesla MODEL 3']</t>
-  </si>
-  <si>
-    <t>['Tesla MODEL 3', 'Others']</t>
-  </si>
-  <si>
-    <t>['Dacia SPRING', 'Fiat 500 E']</t>
-  </si>
-  <si>
-    <t>['VW ID.4', 'VW ID.3', 'Others']</t>
-  </si>
-  <si>
-    <t>[0.4, 0.3]</t>
-  </si>
-  <si>
-    <t>[0.15, 0.1, 0.3]</t>
-  </si>
-  <si>
-    <t>[0.4, 0.05, 0.1]</t>
-  </si>
-  <si>
-    <t>[0.25, 0.25]</t>
-  </si>
-  <si>
-    <t>[0.4, 0.25, 0.15, 0.2, 0.3]</t>
+    <t>[0.2]</t>
+  </si>
+  <si>
+    <t>[0.25, 0.3, 0.2]</t>
+  </si>
+  <si>
+    <t>[0.25, 0.05]</t>
+  </si>
+  <si>
+    <t>[0.3]</t>
+  </si>
+  <si>
+    <t>[0.1]</t>
   </si>
   <si>
     <t>[0.4, 0.25]</t>
   </si>
   <si>
-    <t>[0.3, 0.3]</t>
-  </si>
-  <si>
-    <t>[0.05, 0.3]</t>
-  </si>
-  <si>
-    <t>[0.3]</t>
-  </si>
-  <si>
-    <t>[0.15, 0.25, 0.35, 0.25]</t>
-  </si>
-  <si>
-    <t>[0.2, 0.15]</t>
+    <t>[0.35, 0.3, 0.2]</t>
+  </si>
+  <si>
+    <t>[0.35]</t>
+  </si>
+  <si>
+    <t>[0.3, 0.1]</t>
+  </si>
+  <si>
+    <t>[0.35, 0.25, 0.3]</t>
+  </si>
+  <si>
+    <t>[0.1, 0.05]</t>
+  </si>
+  <si>
+    <t>[0.2, 0.4999999999999999, 0.25, 0.05]</t>
+  </si>
+  <si>
+    <t>[0.15, 0.2]</t>
+  </si>
+  <si>
+    <t>[0.1, 0.3]</t>
+  </si>
+  <si>
+    <t>[0.4]</t>
+  </si>
+  <si>
+    <t>[0.45]</t>
+  </si>
+  <si>
+    <t>[0.25, 0.1]</t>
+  </si>
+  <si>
+    <t>[0.45, 0.15, 0.35]</t>
+  </si>
+  <si>
+    <t>[0.05, 0.3, 0.1, 0.15, 0.25]</t>
+  </si>
+  <si>
+    <t>[0.4, 0.15]</t>
+  </si>
+  <si>
+    <t>[0.15, 0.25]</t>
+  </si>
+  <si>
+    <t>[0.3, 0.45]</t>
+  </si>
+  <si>
+    <t>[0.4999999999999999, 0.35]</t>
+  </si>
+  <si>
+    <t>[0.15, 0.05, 0.1]</t>
+  </si>
+  <si>
+    <t>[0.1, 0.15]</t>
+  </si>
+  <si>
+    <t>[0.25, 0.3, 0.4, 0.4]</t>
+  </si>
+  <si>
+    <t>[0.25, 0.25, 0.15]</t>
+  </si>
+  <si>
+    <t>[0.25, 0.15, 0.35, 0.3]</t>
+  </si>
+  <si>
+    <t>[0.3, 0.35, 0.3]</t>
+  </si>
+  <si>
+    <t>[0.1, 0.2]</t>
   </si>
   <si>
     <t>[0.25]</t>
   </si>
   <si>
-    <t>[0.15]</t>
-  </si>
-  <si>
-    <t>[0.2, 0.35]</t>
-  </si>
-  <si>
-    <t>[0.25, 0.4999999999999999, 0.45]</t>
-  </si>
-  <si>
-    <t>[0.2, 0.45]</t>
-  </si>
-  <si>
-    <t>[0.15, 0.25]</t>
-  </si>
-  <si>
-    <t>[0.1, 0.1, 0.1]</t>
-  </si>
-  <si>
-    <t>[0.7500000000000001, 0.7000000000000001]</t>
-  </si>
-  <si>
-    <t>[0.7000000000000001, 0.8500000000000002, 0.7000000000000001]</t>
-  </si>
-  <si>
-    <t>[0.8500000000000002, 0.9500000000000003, 0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[0.8500000000000002, 0.7000000000000001]</t>
-  </si>
-  <si>
-    <t>[0.9500000000000003, 0.7000000000000001, 0.9000000000000002, 0.8000000000000002, 0.7500000000000001]</t>
-  </si>
-  <si>
-    <t>[0.7000000000000001, 0.8000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.8500000000000002, 0.7500000000000001]</t>
+    <t>[0.6]</t>
+  </si>
+  <si>
+    <t>[0.7000000000000001, 0.8500000000000002, 0.8000000000000002]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.8000000000000002]</t>
+  </si>
+  <si>
+    <t>[1.0]</t>
+  </si>
+  <si>
+    <t>[0.65]</t>
   </si>
   <si>
     <t>[0.7000000000000001, 0.7000000000000001]</t>
   </si>
   <si>
+    <t>[1.0, 0.7000000000000001, 0.8000000000000002]</t>
+  </si>
+  <si>
     <t>[0.8500000000000002]</t>
   </si>
   <si>
-    <t>[0.9000000000000002, 0.7500000000000001, 0.7500000000000001, 0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[0.65, 0.8000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.7500000000000001]</t>
+    <t>[0.7500000000000001, 1.0]</t>
+  </si>
+  <si>
+    <t>[0.6, 0.9500000000000003, 0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[0.7000000000000001, 1.0]</t>
+  </si>
+  <si>
+    <t>[0.65, 0.9000000000000002, 0.8500000000000002, 0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[0.9500000000000003]</t>
+  </si>
+  <si>
+    <t>[0.8500000000000002, 0.65]</t>
+  </si>
+  <si>
+    <t>[0.8000000000000002, 0.9500000000000003]</t>
+  </si>
+  <si>
+    <t>[0.9500000000000003, 0.9000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.8000000000000002]</t>
   </si>
   <si>
     <t>[0.9000000000000002]</t>
   </si>
   <si>
-    <t>[0.65]</t>
-  </si>
-  <si>
-    <t>[0.7500000000000001, 0.7500000000000001]</t>
-  </si>
-  <si>
-    <t>[0.8500000000000002, 0.9000000000000002, 0.65]</t>
-  </si>
-  <si>
-    <t>[0.9500000000000003, 0.6]</t>
-  </si>
-  <si>
-    <t>[0.7000000000000001, 0.9000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.7000000000000001, 0.9500000000000003, 1.0]</t>
-  </si>
-  <si>
-    <t>[18.420694444444447, 25.600000000000005]</t>
-  </si>
-  <si>
-    <t>[28.946805555555557, 43.500000000000014, 25.600000000000005]</t>
-  </si>
-  <si>
-    <t>[10.800000000000004, 45.000000000000014, 39.47291666666668]</t>
-  </si>
-  <si>
-    <t>[46.20000000000002, 33.75000000000001]</t>
-  </si>
-  <si>
-    <t>[28.946805555555567, 20.250000000000004, 39.47291666666668, 34.800000000000004, 23.683750000000007]</t>
-  </si>
-  <si>
-    <t>[25.500000000000004, 28.946805555555564]</t>
-  </si>
-  <si>
-    <t>[28.946805555555567, 20.250000000000007]</t>
-  </si>
-  <si>
-    <t>[34.20986111111111, 30.800000000000004]</t>
-  </si>
-  <si>
-    <t>[27.500000000000014]</t>
-  </si>
-  <si>
-    <t>[21.675000000000004, 26.000000000000007, 21.052222222222227, 14.400000000000006]</t>
-  </si>
-  <si>
-    <t>[26.1, 55.250000000000014]</t>
-  </si>
-  <si>
-    <t>[34.65000000000001]</t>
-  </si>
-  <si>
-    <t>[18.785000000000007]</t>
-  </si>
-  <si>
-    <t>[38.5]</t>
-  </si>
-  <si>
-    <t>[42.35, 20.800000000000008]</t>
-  </si>
-  <si>
-    <t>[30.00000000000001, 20.000000000000018, 10.0]</t>
-  </si>
-  <si>
-    <t>[37.500000000000014, 7.8945833333333315]</t>
-  </si>
-  <si>
-    <t>[14.740000000000002, 15.600000000000005]</t>
-  </si>
-  <si>
-    <t>[46.20000000000001, 49.30000000000002, 47.3675]</t>
+    <t>[0.8500000000000002, 0.9500000000000003]</t>
+  </si>
+  <si>
+    <t>[0.9000000000000002, 0.7000000000000001, 0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[0.9500000000000003, 1.0, 0.8500000000000002, 0.8500000000000002, 0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[0.9500000000000003, 0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[0.7500000000000001, 0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[0.6, 0.6]</t>
+  </si>
+  <si>
+    <t>[0.8000000000000002, 0.9000000000000002, 0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[0.9500000000000003, 0.7000000000000001]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.8500000000000002, 0.6, 0.7500000000000001]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.9500000000000003, 0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[0.9000000000000002, 0.8500000000000002, 0.65, 1.0]</t>
+  </si>
+  <si>
+    <t>[0.7000000000000001, 0.8500000000000002, 0.7500000000000001]</t>
+  </si>
+  <si>
+    <t>[0.9000000000000002, 0.7000000000000001]</t>
+  </si>
+  <si>
+    <t>[0.8000000000000002, 0.65]</t>
+  </si>
+  <si>
+    <t>[21.05222222222222]</t>
+  </si>
+  <si>
+    <t>[38.25000000000001, 31.900000000000016, 31.578333333333337]</t>
+  </si>
+  <si>
+    <t>[39.47291666666666, 43.50000000000001]</t>
+  </si>
+  <si>
+    <t>[36.841388888888886]</t>
+  </si>
+  <si>
+    <t>[20.24]</t>
+  </si>
+  <si>
+    <t>[22.500000000000004, 20.250000000000004]</t>
+  </si>
+  <si>
+    <t>[15.600000000000001, 25.600000000000005, 23.400000000000002]</t>
+  </si>
+  <si>
+    <t>[22.5]</t>
+  </si>
+  <si>
+    <t>[26.315277777777787]</t>
+  </si>
+  <si>
+    <t>[10.800000000000002, 47.3675]</t>
+  </si>
+  <si>
+    <t>[11.25, 36.8413888888889, 28.946805555555567]</t>
+  </si>
+  <si>
+    <t>[11.440000000000003]</t>
+  </si>
+  <si>
+    <t>[31.200000000000003, 37.05]</t>
+  </si>
+  <si>
+    <t>[38.25, 14.720000000000011, 27.00000000000001, 42.104444444444454]</t>
+  </si>
+  <si>
+    <t>[39.47291666666668]</t>
+  </si>
+  <si>
+    <t>[25.760000000000005, 22.5]</t>
+  </si>
+  <si>
+    <t>[21.052222222222227, 35.000000000000014]</t>
+  </si>
+  <si>
+    <t>[20.400000000000006, 14.400000000000007]</t>
+  </si>
+  <si>
+    <t>[25.60000000000001]</t>
+  </si>
+  <si>
+    <t>[18.420694444444447]</t>
+  </si>
+  <si>
+    <t>[23.68375000000001]</t>
+  </si>
+  <si>
+    <t>[27.00000000000001, 44.73597222222224]</t>
+  </si>
+  <si>
+    <t>[34.65000000000002, 28.946805555555557, 26.315277777777787]</t>
+  </si>
+  <si>
+    <t>[10.720000000000006]</t>
+  </si>
+  <si>
+    <t>[69.30000000000003, 12.32, 39.47291666666668, 36.400000000000006, 17.340000000000003]</t>
+  </si>
+  <si>
+    <t>[34.80000000000002]</t>
+  </si>
+  <si>
+    <t>[21.052222222222227, 42.104444444444454]</t>
+  </si>
+  <si>
+    <t>[29.44000000000001, 45.960000000000015]</t>
+  </si>
+  <si>
+    <t>[34.20986111111113, 7.040000000000004]</t>
+  </si>
+  <si>
+    <t>[35.20000000000002]</t>
+  </si>
+  <si>
+    <t>[11.25000000000001, 26.315277777777787]</t>
+  </si>
+  <si>
+    <t>[33.75, 18.420694444444443]</t>
+  </si>
+  <si>
+    <t>[34.20986111111112, 49.30000000000001, 39.47291666666668]</t>
+  </si>
+  <si>
+    <t>[29.250000000000007]</t>
+  </si>
+  <si>
+    <t>[44.73597222222224, 40.7]</t>
+  </si>
+  <si>
+    <t>[18.0, 42.13000000000002, 7.359999999999998, 18.420694444444447]</t>
+  </si>
+  <si>
+    <t>[29.25, 40.600000000000016, 12.320000000000004]</t>
+  </si>
+  <si>
+    <t>[41.600000000000016, 12.320000000000004, 11.040000000000001, 53.9]</t>
+  </si>
+  <si>
+    <t>[20.400000000000006]</t>
+  </si>
+  <si>
+    <t>[30.000000000000007, 19.500000000000007, 23.683750000000007]</t>
+  </si>
+  <si>
+    <t>[59.20000000000002, 25.0]</t>
+  </si>
+  <si>
+    <t>[42.35000000000001, 9.680000000000001]</t>
+  </si>
+  <si>
+    <t>[42.35000000000001]</t>
   </si>
 </sst>
 </file>
@@ -767,7 +1121,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -798,16 +1152,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -818,16 +1172,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -838,16 +1192,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -858,16 +1212,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -878,16 +1232,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -898,19 +1252,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>207</v>
       </c>
       <c r="F7">
-        <v>44.02069444444445</v>
+        <v>21.05222222222222</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -918,19 +1272,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
+        <v>208</v>
       </c>
       <c r="F8">
-        <v>98.04680555555558</v>
+        <v>101.7283333333334</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -938,19 +1292,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>209</v>
       </c>
       <c r="F9">
-        <v>95.2729166666667</v>
+        <v>82.97291666666666</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -958,19 +1312,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>178</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>210</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>36.84138888888889</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -978,19 +1332,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>179</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>211</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>20.24</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -998,19 +1352,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="D12" t="s">
-        <v>97</v>
+        <v>180</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>212</v>
       </c>
       <c r="F12">
-        <v>79.95000000000002</v>
+        <v>42.75000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1018,19 +1372,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="E13" t="s">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="F13">
-        <v>147.1534722222223</v>
+        <v>64.60000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1038,16 +1392,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1058,19 +1412,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>175</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>214</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1078,16 +1432,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1098,19 +1452,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="E17" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="F17">
-        <v>54.44680555555557</v>
+        <v>26.31527777777779</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1118,19 +1472,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>183</v>
       </c>
       <c r="E18" t="s">
-        <v>119</v>
+        <v>216</v>
       </c>
       <c r="F18">
-        <v>49.19680555555557</v>
+        <v>58.1675</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1138,19 +1492,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>217</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>77.03819444444447</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1158,19 +1512,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="D20" t="s">
-        <v>101</v>
+        <v>182</v>
       </c>
       <c r="E20" t="s">
-        <v>120</v>
+        <v>218</v>
       </c>
       <c r="F20">
-        <v>65.00986111111112</v>
+        <v>11.44</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1178,19 +1532,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E21" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="F21">
-        <v>27.50000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1198,16 +1552,16 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1218,16 +1572,16 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1238,16 +1592,16 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1258,16 +1612,16 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1278,16 +1632,16 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="E26" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1298,16 +1652,16 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1318,16 +1672,16 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1338,16 +1692,16 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="E29" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1358,16 +1712,16 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="E30" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1378,16 +1732,16 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="D31" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="E31" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1398,19 +1752,19 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>185</v>
       </c>
       <c r="E32" t="s">
-        <v>122</v>
+        <v>219</v>
       </c>
       <c r="F32">
-        <v>83.12722222222224</v>
+        <v>68.25</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1418,19 +1772,19 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="D33" t="s">
-        <v>104</v>
+        <v>186</v>
       </c>
       <c r="E33" t="s">
-        <v>123</v>
+        <v>220</v>
       </c>
       <c r="F33">
-        <v>81.35000000000002</v>
+        <v>122.0744444444445</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1438,19 +1792,19 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>187</v>
       </c>
       <c r="E34" t="s">
-        <v>124</v>
+        <v>221</v>
       </c>
       <c r="F34">
-        <v>34.65000000000001</v>
+        <v>39.47291666666668</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1458,19 +1812,19 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="D35" t="s">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c r="E35" t="s">
-        <v>125</v>
+        <v>222</v>
       </c>
       <c r="F35">
-        <v>18.78500000000001</v>
+        <v>48.26000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1478,19 +1832,19 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="D36" t="s">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="E36" t="s">
-        <v>126</v>
+        <v>223</v>
       </c>
       <c r="F36">
-        <v>38.5</v>
+        <v>56.05222222222224</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1498,19 +1852,19 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="C37" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="D37" t="s">
-        <v>108</v>
+        <v>190</v>
       </c>
       <c r="E37" t="s">
-        <v>127</v>
+        <v>224</v>
       </c>
       <c r="F37">
-        <v>63.15000000000001</v>
+        <v>34.80000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1518,19 +1872,19 @@
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="D38" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="E38" t="s">
-        <v>128</v>
+        <v>225</v>
       </c>
       <c r="F38">
-        <v>60.00000000000003</v>
+        <v>25.60000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1538,16 +1892,16 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="D39" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="E39" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1558,19 +1912,19 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="C40" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="D40" t="s">
-        <v>56</v>
+        <v>179</v>
       </c>
       <c r="E40" t="s">
-        <v>56</v>
+        <v>226</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>18.42069444444445</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1578,19 +1932,19 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
+        <v>192</v>
       </c>
       <c r="E41" t="s">
-        <v>129</v>
+        <v>227</v>
       </c>
       <c r="F41">
-        <v>45.39458333333334</v>
+        <v>23.68375000000001</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1598,19 +1952,19 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="D42" t="s">
-        <v>111</v>
+        <v>193</v>
       </c>
       <c r="E42" t="s">
-        <v>130</v>
+        <v>228</v>
       </c>
       <c r="F42">
-        <v>30.34000000000001</v>
+        <v>71.73597222222224</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1618,19 +1972,19 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>194</v>
       </c>
       <c r="E43" t="s">
-        <v>131</v>
+        <v>229</v>
       </c>
       <c r="F43">
-        <v>142.8675</v>
+        <v>89.91208333333336</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1638,16 +1992,16 @@
         <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="D44" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="E44" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1658,16 +2012,16 @@
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="C45" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="D45" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="E45" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1678,16 +2032,16 @@
         <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="D46" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="E46" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1698,16 +2052,16 @@
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="C47" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="D47" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="E47" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1718,16 +2072,16 @@
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="D48" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="E48" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1738,16 +2092,16 @@
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="C49" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="D49" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="E49" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1758,16 +2112,16 @@
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="C50" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="D50" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="E50" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -1778,18 +2132,1018 @@
         <v>55</v>
       </c>
       <c r="B51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" t="s">
+        <v>106</v>
+      </c>
+      <c r="E51" t="s">
+        <v>106</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
         <v>56</v>
       </c>
-      <c r="C51" t="s">
-        <v>56</v>
-      </c>
-      <c r="D51" t="s">
-        <v>56</v>
-      </c>
-      <c r="E51" t="s">
-        <v>56</v>
-      </c>
-      <c r="F51">
+      <c r="B52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52" t="s">
+        <v>106</v>
+      </c>
+      <c r="E52" t="s">
+        <v>106</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" t="s">
+        <v>106</v>
+      </c>
+      <c r="E53" t="s">
+        <v>106</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" t="s">
+        <v>106</v>
+      </c>
+      <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" t="s">
+        <v>159</v>
+      </c>
+      <c r="D55" t="s">
+        <v>182</v>
+      </c>
+      <c r="E55" t="s">
+        <v>230</v>
+      </c>
+      <c r="F55">
+        <v>10.72000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" t="s">
+        <v>162</v>
+      </c>
+      <c r="D56" t="s">
+        <v>195</v>
+      </c>
+      <c r="E56" t="s">
+        <v>231</v>
+      </c>
+      <c r="F56">
+        <v>174.8329166666667</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" t="s">
+        <v>106</v>
+      </c>
+      <c r="E57" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" t="s">
+        <v>151</v>
+      </c>
+      <c r="D58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E58" t="s">
+        <v>232</v>
+      </c>
+      <c r="F58">
+        <v>34.80000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" t="s">
+        <v>163</v>
+      </c>
+      <c r="D59" t="s">
+        <v>189</v>
+      </c>
+      <c r="E59" t="s">
+        <v>233</v>
+      </c>
+      <c r="F59">
+        <v>63.15666666666668</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" t="s">
+        <v>106</v>
+      </c>
+      <c r="D60" t="s">
+        <v>106</v>
+      </c>
+      <c r="E60" t="s">
+        <v>106</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" t="s">
+        <v>129</v>
+      </c>
+      <c r="C61" t="s">
+        <v>164</v>
+      </c>
+      <c r="D61" t="s">
+        <v>196</v>
+      </c>
+      <c r="E61" t="s">
+        <v>234</v>
+      </c>
+      <c r="F61">
+        <v>75.40000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" t="s">
+        <v>165</v>
+      </c>
+      <c r="D62" t="s">
+        <v>196</v>
+      </c>
+      <c r="E62" t="s">
+        <v>235</v>
+      </c>
+      <c r="F62">
+        <v>41.24986111111114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" t="s">
+        <v>147</v>
+      </c>
+      <c r="D63" t="s">
+        <v>182</v>
+      </c>
+      <c r="E63" t="s">
+        <v>236</v>
+      </c>
+      <c r="F63">
+        <v>35.20000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D64" t="s">
+        <v>106</v>
+      </c>
+      <c r="E64" t="s">
+        <v>106</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" t="s">
+        <v>166</v>
+      </c>
+      <c r="D65" t="s">
+        <v>197</v>
+      </c>
+      <c r="E65" t="s">
+        <v>237</v>
+      </c>
+      <c r="F65">
+        <v>37.56527777777779</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" t="s">
+        <v>164</v>
+      </c>
+      <c r="D66" t="s">
+        <v>198</v>
+      </c>
+      <c r="E66" t="s">
+        <v>238</v>
+      </c>
+      <c r="F66">
+        <v>52.17069444444444</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" t="s">
+        <v>167</v>
+      </c>
+      <c r="D67" t="s">
+        <v>199</v>
+      </c>
+      <c r="E67" t="s">
+        <v>239</v>
+      </c>
+      <c r="F67">
+        <v>122.9827777777778</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" t="s">
+        <v>106</v>
+      </c>
+      <c r="C68" t="s">
+        <v>106</v>
+      </c>
+      <c r="D68" t="s">
+        <v>106</v>
+      </c>
+      <c r="E68" t="s">
+        <v>106</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" t="s">
+        <v>106</v>
+      </c>
+      <c r="D69" t="s">
+        <v>106</v>
+      </c>
+      <c r="E69" t="s">
+        <v>106</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70" t="s">
+        <v>106</v>
+      </c>
+      <c r="D70" t="s">
+        <v>106</v>
+      </c>
+      <c r="E70" t="s">
+        <v>106</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" t="s">
+        <v>106</v>
+      </c>
+      <c r="C71" t="s">
+        <v>106</v>
+      </c>
+      <c r="D71" t="s">
+        <v>106</v>
+      </c>
+      <c r="E71" t="s">
+        <v>106</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" t="s">
+        <v>106</v>
+      </c>
+      <c r="C72" t="s">
+        <v>106</v>
+      </c>
+      <c r="D72" t="s">
+        <v>106</v>
+      </c>
+      <c r="E72" t="s">
+        <v>106</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" t="s">
+        <v>106</v>
+      </c>
+      <c r="C73" t="s">
+        <v>106</v>
+      </c>
+      <c r="D73" t="s">
+        <v>106</v>
+      </c>
+      <c r="E73" t="s">
+        <v>106</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74" t="s">
+        <v>106</v>
+      </c>
+      <c r="D74" t="s">
+        <v>106</v>
+      </c>
+      <c r="E74" t="s">
+        <v>106</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" t="s">
+        <v>106</v>
+      </c>
+      <c r="C75" t="s">
+        <v>106</v>
+      </c>
+      <c r="D75" t="s">
+        <v>106</v>
+      </c>
+      <c r="E75" t="s">
+        <v>106</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" t="s">
+        <v>106</v>
+      </c>
+      <c r="C76" t="s">
+        <v>106</v>
+      </c>
+      <c r="D76" t="s">
+        <v>106</v>
+      </c>
+      <c r="E76" t="s">
+        <v>106</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" t="s">
+        <v>106</v>
+      </c>
+      <c r="C77" t="s">
+        <v>106</v>
+      </c>
+      <c r="D77" t="s">
+        <v>106</v>
+      </c>
+      <c r="E77" t="s">
+        <v>106</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" t="s">
+        <v>106</v>
+      </c>
+      <c r="C78" t="s">
+        <v>106</v>
+      </c>
+      <c r="D78" t="s">
+        <v>106</v>
+      </c>
+      <c r="E78" t="s">
+        <v>106</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" t="s">
+        <v>134</v>
+      </c>
+      <c r="C79" t="s">
+        <v>144</v>
+      </c>
+      <c r="D79" t="s">
+        <v>182</v>
+      </c>
+      <c r="E79" t="s">
+        <v>240</v>
+      </c>
+      <c r="F79">
+        <v>29.25000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" t="s">
+        <v>135</v>
+      </c>
+      <c r="C80" t="s">
+        <v>168</v>
+      </c>
+      <c r="D80" t="s">
+        <v>200</v>
+      </c>
+      <c r="E80" t="s">
+        <v>241</v>
+      </c>
+      <c r="F80">
+        <v>85.43597222222223</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" t="s">
+        <v>136</v>
+      </c>
+      <c r="C81" t="s">
+        <v>169</v>
+      </c>
+      <c r="D81" t="s">
+        <v>201</v>
+      </c>
+      <c r="E81" t="s">
+        <v>242</v>
+      </c>
+      <c r="F81">
+        <v>85.91069444444446</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" t="s">
+        <v>106</v>
+      </c>
+      <c r="C82" t="s">
+        <v>106</v>
+      </c>
+      <c r="D82" t="s">
+        <v>106</v>
+      </c>
+      <c r="E82" t="s">
+        <v>106</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" t="s">
+        <v>106</v>
+      </c>
+      <c r="C83" t="s">
+        <v>106</v>
+      </c>
+      <c r="D83" t="s">
+        <v>106</v>
+      </c>
+      <c r="E83" t="s">
+        <v>106</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" t="s">
+        <v>137</v>
+      </c>
+      <c r="C84" t="s">
+        <v>170</v>
+      </c>
+      <c r="D84" t="s">
+        <v>202</v>
+      </c>
+      <c r="E84" t="s">
+        <v>243</v>
+      </c>
+      <c r="F84">
+        <v>82.17000000000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" t="s">
+        <v>138</v>
+      </c>
+      <c r="C85" t="s">
+        <v>171</v>
+      </c>
+      <c r="D85" t="s">
+        <v>203</v>
+      </c>
+      <c r="E85" t="s">
+        <v>244</v>
+      </c>
+      <c r="F85">
+        <v>118.86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" t="s">
+        <v>139</v>
+      </c>
+      <c r="C86" t="s">
+        <v>148</v>
+      </c>
+      <c r="D86" t="s">
+        <v>187</v>
+      </c>
+      <c r="E86" t="s">
+        <v>245</v>
+      </c>
+      <c r="F86">
+        <v>20.40000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87" t="s">
+        <v>106</v>
+      </c>
+      <c r="C87" t="s">
+        <v>106</v>
+      </c>
+      <c r="D87" t="s">
+        <v>106</v>
+      </c>
+      <c r="E87" t="s">
+        <v>106</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" t="s">
+        <v>106</v>
+      </c>
+      <c r="C88" t="s">
+        <v>106</v>
+      </c>
+      <c r="D88" t="s">
+        <v>106</v>
+      </c>
+      <c r="E88" t="s">
+        <v>106</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" t="s">
+        <v>140</v>
+      </c>
+      <c r="C89" t="s">
+        <v>172</v>
+      </c>
+      <c r="D89" t="s">
+        <v>204</v>
+      </c>
+      <c r="E89" t="s">
+        <v>246</v>
+      </c>
+      <c r="F89">
+        <v>73.18375000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" t="s">
+        <v>106</v>
+      </c>
+      <c r="C90" t="s">
+        <v>106</v>
+      </c>
+      <c r="D90" t="s">
+        <v>106</v>
+      </c>
+      <c r="E90" t="s">
+        <v>106</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" t="s">
+        <v>141</v>
+      </c>
+      <c r="C91" t="s">
+        <v>173</v>
+      </c>
+      <c r="D91" t="s">
+        <v>205</v>
+      </c>
+      <c r="E91" t="s">
+        <v>247</v>
+      </c>
+      <c r="F91">
+        <v>84.20000000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92" t="s">
+        <v>142</v>
+      </c>
+      <c r="C92" t="s">
+        <v>160</v>
+      </c>
+      <c r="D92" t="s">
+        <v>206</v>
+      </c>
+      <c r="E92" t="s">
+        <v>248</v>
+      </c>
+      <c r="F92">
+        <v>52.03000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93" t="s">
+        <v>143</v>
+      </c>
+      <c r="C93" t="s">
+        <v>174</v>
+      </c>
+      <c r="D93" t="s">
+        <v>191</v>
+      </c>
+      <c r="E93" t="s">
+        <v>249</v>
+      </c>
+      <c r="F93">
+        <v>42.35000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94" t="s">
+        <v>106</v>
+      </c>
+      <c r="C94" t="s">
+        <v>106</v>
+      </c>
+      <c r="D94" t="s">
+        <v>106</v>
+      </c>
+      <c r="E94" t="s">
+        <v>106</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95" t="s">
+        <v>106</v>
+      </c>
+      <c r="C95" t="s">
+        <v>106</v>
+      </c>
+      <c r="D95" t="s">
+        <v>106</v>
+      </c>
+      <c r="E95" t="s">
+        <v>106</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96" t="s">
+        <v>106</v>
+      </c>
+      <c r="C96" t="s">
+        <v>106</v>
+      </c>
+      <c r="D96" t="s">
+        <v>106</v>
+      </c>
+      <c r="E96" t="s">
+        <v>106</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>101</v>
+      </c>
+      <c r="B97" t="s">
+        <v>106</v>
+      </c>
+      <c r="C97" t="s">
+        <v>106</v>
+      </c>
+      <c r="D97" t="s">
+        <v>106</v>
+      </c>
+      <c r="E97" t="s">
+        <v>106</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C98" t="s">
+        <v>106</v>
+      </c>
+      <c r="D98" t="s">
+        <v>106</v>
+      </c>
+      <c r="E98" t="s">
+        <v>106</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>103</v>
+      </c>
+      <c r="B99" t="s">
+        <v>106</v>
+      </c>
+      <c r="C99" t="s">
+        <v>106</v>
+      </c>
+      <c r="D99" t="s">
+        <v>106</v>
+      </c>
+      <c r="E99" t="s">
+        <v>106</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100" t="s">
+        <v>106</v>
+      </c>
+      <c r="C100" t="s">
+        <v>106</v>
+      </c>
+      <c r="D100" t="s">
+        <v>106</v>
+      </c>
+      <c r="E100" t="s">
+        <v>106</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101" t="s">
+        <v>106</v>
+      </c>
+      <c r="D101" t="s">
+        <v>106</v>
+      </c>
+      <c r="E101" t="s">
+        <v>106</v>
+      </c>
+      <c r="F101">
         <v>0</v>
       </c>
     </row>

--- a/output/df_structured_charging_station1.xlsx
+++ b/output/df_structured_charging_station1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="236">
   <si>
     <t>timestamp</t>
   </si>
@@ -337,433 +337,391 @@
     <t>[]</t>
   </si>
   <si>
+    <t>['Others', 'Others']</t>
+  </si>
+  <si>
+    <t>['Hyundai KONA 39 kWh']</t>
+  </si>
+  <si>
+    <t>['Audi Q4', 'Fiat 500 E', 'Others', 'Others']</t>
+  </si>
+  <si>
     <t>['Others']</t>
   </si>
   <si>
-    <t>['Audi E-TRON', 'SKODA ENYAQ 58kWh', 'Others']</t>
-  </si>
-  <si>
-    <t>['Others', 'SKODA ENYAQ 58kWh']</t>
+    <t>['Others', 'Others', 'VW ID.4', 'Renault TWINGO']</t>
+  </si>
+  <si>
+    <t>['Others', 'Others', 'Others', 'TESLA MODEL Y']</t>
+  </si>
+  <si>
+    <t>['Fiat 500 E']</t>
+  </si>
+  <si>
+    <t>['Hyundai KONA 64 kWh', 'Others', 'Fiat 500 E']</t>
+  </si>
+  <si>
+    <t>['Others', 'Tesla MODEL 3', 'Others']</t>
+  </si>
+  <si>
+    <t>['Hyundai KONA 64 kWh']</t>
+  </si>
+  <si>
+    <t>['MINI Cooper SE', 'Others', 'Others', 'Tesla MODEL 3']</t>
+  </si>
+  <si>
+    <t>['KIA EV6', 'Audi Q4']</t>
+  </si>
+  <si>
+    <t>['Tesla MODEL 3']</t>
+  </si>
+  <si>
+    <t>['Smart FORTWO', 'Others']</t>
+  </si>
+  <si>
+    <t>['MINI Cooper SE', 'Smart FORTWO', 'Others', 'TESLA MODEL Y']</t>
+  </si>
+  <si>
+    <t>['Others', 'Others', 'Hyundai IONIQ5 58kWh']</t>
+  </si>
+  <si>
+    <t>['Renault TWINGO']</t>
+  </si>
+  <si>
+    <t>['Smart FORTWO', 'Others', 'Peugeot 208', 'Smart FORTWO']</t>
+  </si>
+  <si>
+    <t>['Hyundai KONA 39 kWh', 'Tesla MODEL 3']</t>
+  </si>
+  <si>
+    <t>['Audi Q4', 'MINI Cooper SE', 'VW E-UP']</t>
+  </si>
+  <si>
+    <t>['Hyundai IONIQ5 77kWh']</t>
+  </si>
+  <si>
+    <t>['Fiat 500 E', 'Polestar 2']</t>
+  </si>
+  <si>
+    <t>['TESLA MODEL Y']</t>
+  </si>
+  <si>
+    <t>['Tesla MODEL 3', 'Hyundai IONIQ5 58kWh']</t>
+  </si>
+  <si>
+    <t>['Others', 'Others', 'Audi Q4', 'Others']</t>
+  </si>
+  <si>
+    <t>['Hyundai KONA 64 kWh', 'Hyundai IONIQ5 77kWh']</t>
+  </si>
+  <si>
+    <t>['Others', 'Dacia SPRING', 'Opel MOKKA', 'VW ID.3']</t>
   </si>
   <si>
     <t>['VW E-UP']</t>
   </si>
   <si>
-    <t>['TESLA MODEL Y', 'Peugeot 208']</t>
-  </si>
-  <si>
-    <t>['Fiat 500 E', 'Hyundai KONA 64 kWh', 'Hyundai KONA 39 kWh']</t>
-  </si>
-  <si>
-    <t>['TESLA MODEL Y']</t>
-  </si>
-  <si>
-    <t>['Fiat 500 E', 'Others']</t>
-  </si>
-  <si>
-    <t>['Opel MOKKA', 'Others', 'Others']</t>
-  </si>
-  <si>
-    <t>['Smart FORTWO']</t>
-  </si>
-  <si>
-    <t>['Renault ZOE', 'Hyundai KONA 39 kWh']</t>
-  </si>
-  <si>
-    <t>['Audi E-TRON', 'VW E-UP', 'Opel MOKKA', 'Others']</t>
-  </si>
-  <si>
-    <t>['VW E-UP', 'Tesla MODEL 3']</t>
-  </si>
-  <si>
-    <t>['Others', 'Tesla MODEL 3']</t>
-  </si>
-  <si>
-    <t>['Fiat 500 E', 'Fiat 500 E']</t>
-  </si>
-  <si>
-    <t>['Hyundai KONA 64 kWh']</t>
-  </si>
-  <si>
-    <t>['Peugeot 208', 'Others']</t>
-  </si>
-  <si>
-    <t>['VW ID.5', 'Others', 'Others']</t>
-  </si>
-  <si>
-    <t>['Dacia SPRING']</t>
-  </si>
-  <si>
-    <t>['VW ID.4', 'Smart FORTWO', 'Others', 'Renault ZOE', 'MINI Cooper SE']</t>
-  </si>
-  <si>
-    <t>['SKODA ENYAQ 58kWh']</t>
-  </si>
-  <si>
-    <t>['Others', 'Others']</t>
-  </si>
-  <si>
-    <t>['VW E-UP', 'Audi Q4']</t>
-  </si>
-  <si>
-    <t>['Others', 'Smart FORTWO']</t>
-  </si>
-  <si>
-    <t>['Opel MOKKA', 'Others']</t>
-  </si>
-  <si>
-    <t>['Polestar 2', 'Others']</t>
-  </si>
-  <si>
-    <t>['Others', 'VW ID.3', 'Others']</t>
-  </si>
-  <si>
-    <t>['Peugeot 208']</t>
-  </si>
-  <si>
-    <t>['Others', 'KIA EV6']</t>
-  </si>
-  <si>
-    <t>['Fiat 500 E', 'Audi Q4', 'VW E-UP', 'Others']</t>
-  </si>
-  <si>
-    <t>['Hyundai KONA 39 kWh', 'VW ID.3', 'Smart FORTWO']</t>
-  </si>
-  <si>
-    <t>['Hyundai KONA 64 kWh', 'Smart FORTWO', 'VW E-UP', 'SKODA ENYAQ 77kWh']</t>
-  </si>
-  <si>
-    <t>['Fiat 500 E']</t>
-  </si>
-  <si>
-    <t>['TESLA MODEL Y', 'Hyundai KONA 39 kWh', 'Others']</t>
-  </si>
-  <si>
-    <t>['KIA EV6', 'Tesla MODEL 3']</t>
-  </si>
-  <si>
-    <t>['SKODA ENYAQ 77kWh', 'Smart FORTWO']</t>
-  </si>
-  <si>
-    <t>['SKODA ENYAQ 77kWh']</t>
+    <t>['MINI Cooper SE', 'Others', 'Others']</t>
+  </si>
+  <si>
+    <t>['Others', 'Smart FORTWO', 'TESLA MODEL Y']</t>
+  </si>
+  <si>
+    <t>[0.25, 0.05]</t>
+  </si>
+  <si>
+    <t>[0.4]</t>
+  </si>
+  <si>
+    <t>[0.35, 0.05, 0.25, 0.2]</t>
+  </si>
+  <si>
+    <t>[0.35]</t>
+  </si>
+  <si>
+    <t>[0.35, 0.3, 0.2, 0.05]</t>
+  </si>
+  <si>
+    <t>[0.1, 0.15]</t>
+  </si>
+  <si>
+    <t>[0.05]</t>
+  </si>
+  <si>
+    <t>[0.15]</t>
+  </si>
+  <si>
+    <t>[0.05, 0.35, 0.1, 0.35]</t>
+  </si>
+  <si>
+    <t>[0.1]</t>
+  </si>
+  <si>
+    <t>[0.15, 0.3, 0.25]</t>
+  </si>
+  <si>
+    <t>[0.15, 0.35, 0.2]</t>
+  </si>
+  <si>
+    <t>[0.15, 0.05, 0.25, 0.05]</t>
+  </si>
+  <si>
+    <t>[0.35, 0.3]</t>
   </si>
   <si>
     <t>[0.2]</t>
   </si>
   <si>
-    <t>[0.25, 0.3, 0.2]</t>
-  </si>
-  <si>
-    <t>[0.25, 0.05]</t>
+    <t>[0.25, 0.2]</t>
+  </si>
+  <si>
+    <t>[0.15, 0.1, 0.35, 0.45]</t>
+  </si>
+  <si>
+    <t>[0.25, 0.2, 0.3]</t>
   </si>
   <si>
     <t>[0.3]</t>
   </si>
   <si>
-    <t>[0.1]</t>
-  </si>
-  <si>
-    <t>[0.4, 0.25]</t>
-  </si>
-  <si>
-    <t>[0.35, 0.3, 0.2]</t>
-  </si>
-  <si>
-    <t>[0.35]</t>
-  </si>
-  <si>
-    <t>[0.3, 0.1]</t>
-  </si>
-  <si>
-    <t>[0.35, 0.25, 0.3]</t>
-  </si>
-  <si>
-    <t>[0.1, 0.05]</t>
-  </si>
-  <si>
-    <t>[0.2, 0.4999999999999999, 0.25, 0.05]</t>
-  </si>
-  <si>
-    <t>[0.15, 0.2]</t>
-  </si>
-  <si>
-    <t>[0.1, 0.3]</t>
-  </si>
-  <si>
-    <t>[0.4]</t>
-  </si>
-  <si>
-    <t>[0.45]</t>
-  </si>
-  <si>
-    <t>[0.25, 0.1]</t>
-  </si>
-  <si>
-    <t>[0.45, 0.15, 0.35]</t>
-  </si>
-  <si>
-    <t>[0.05, 0.3, 0.1, 0.15, 0.25]</t>
-  </si>
-  <si>
-    <t>[0.4, 0.15]</t>
-  </si>
-  <si>
-    <t>[0.15, 0.25]</t>
-  </si>
-  <si>
-    <t>[0.3, 0.45]</t>
-  </si>
-  <si>
-    <t>[0.4999999999999999, 0.35]</t>
-  </si>
-  <si>
-    <t>[0.15, 0.05, 0.1]</t>
-  </si>
-  <si>
-    <t>[0.1, 0.15]</t>
-  </si>
-  <si>
-    <t>[0.25, 0.3, 0.4, 0.4]</t>
-  </si>
-  <si>
-    <t>[0.25, 0.25, 0.15]</t>
-  </si>
-  <si>
-    <t>[0.25, 0.15, 0.35, 0.3]</t>
-  </si>
-  <si>
-    <t>[0.3, 0.35, 0.3]</t>
-  </si>
-  <si>
-    <t>[0.1, 0.2]</t>
+    <t>[0.35, 0.3, 0.25, 0.3]</t>
+  </si>
+  <si>
+    <t>[0.05, 0.25]</t>
+  </si>
+  <si>
+    <t>[0.2, 0.15, 0.4]</t>
   </si>
   <si>
     <t>[0.25]</t>
   </si>
   <si>
-    <t>[0.6]</t>
-  </si>
-  <si>
-    <t>[0.7000000000000001, 0.8500000000000002, 0.8000000000000002]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.8000000000000002]</t>
+    <t>[0.4999999999999999, 0.4]</t>
+  </si>
+  <si>
+    <t>[0.15, 0.1]</t>
+  </si>
+  <si>
+    <t>[0.3, 0.3, 0.3, 0.3]</t>
+  </si>
+  <si>
+    <t>[0.4, 0.1]</t>
+  </si>
+  <si>
+    <t>[0.15, 0.1, 0.1, 0.15]</t>
+  </si>
+  <si>
+    <t>[0.3, 0.3, 0.4]</t>
+  </si>
+  <si>
+    <t>[0.25, 0.4, 0.05]</t>
+  </si>
+  <si>
+    <t>[0.8000000000000002, 0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[0.8000000000000002, 0.9000000000000002, 0.9000000000000002, 0.7000000000000001]</t>
+  </si>
+  <si>
+    <t>[0.7000000000000001]</t>
+  </si>
+  <si>
+    <t>[0.8500000000000002, 0.9000000000000002, 0.9500000000000003, 0.9000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.9000000000000002, 0.9000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.8000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.8000000000000002, 0.7500000000000001, 0.65, 1.0]</t>
   </si>
   <si>
     <t>[1.0]</t>
   </si>
   <si>
+    <t>[0.7500000000000001]</t>
+  </si>
+  <si>
+    <t>[0.8000000000000002, 0.7500000000000001, 0.8000000000000002]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.8500000000000002, 0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[0.9500000000000003, 0.7500000000000001, 0.9000000000000002, 0.9500000000000003]</t>
+  </si>
+  <si>
+    <t>[0.8500000000000002, 0.8500000000000002]</t>
+  </si>
+  <si>
     <t>[0.65]</t>
   </si>
   <si>
+    <t>[0.9500000000000003, 0.8000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.6, 0.9000000000000002, 1.0, 0.9000000000000002]</t>
+  </si>
+  <si>
+    <t>[0.9500000000000003, 0.65, 0.8500000000000002]</t>
+  </si>
+  <si>
+    <t>[0.9000000000000002]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.9000000000000002, 1.0, 0.7500000000000001]</t>
+  </si>
+  <si>
     <t>[0.7000000000000001, 0.7000000000000001]</t>
   </si>
   <si>
-    <t>[1.0, 0.7000000000000001, 0.8000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[0.7500000000000001, 1.0]</t>
-  </si>
-  <si>
-    <t>[0.6, 0.9500000000000003, 0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[0.7000000000000001, 1.0]</t>
-  </si>
-  <si>
-    <t>[0.65, 0.9000000000000002, 0.8500000000000002, 0.8500000000000002]</t>
+    <t>[0.8500000000000002, 0.9000000000000002, 0.65]</t>
   </si>
   <si>
     <t>[0.9500000000000003]</t>
   </si>
   <si>
-    <t>[0.8500000000000002, 0.65]</t>
-  </si>
-  <si>
-    <t>[0.8000000000000002, 0.9500000000000003]</t>
-  </si>
-  <si>
-    <t>[0.9500000000000003, 0.9000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.8000000000000002]</t>
-  </si>
-  <si>
-    <t>[0.9000000000000002]</t>
+    <t>[0.8500000000000002, 1.0]</t>
   </si>
   <si>
     <t>[0.8500000000000002, 0.9500000000000003]</t>
   </si>
   <si>
-    <t>[0.9000000000000002, 0.7000000000000001, 0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[0.9500000000000003, 1.0, 0.8500000000000002, 0.8500000000000002, 0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[0.9500000000000003, 0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[0.7500000000000001, 0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[0.6, 0.6]</t>
-  </si>
-  <si>
-    <t>[0.8000000000000002, 0.9000000000000002, 0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[0.9500000000000003, 0.7000000000000001]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.8500000000000002, 0.6, 0.7500000000000001]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.9500000000000003, 0.8500000000000002]</t>
-  </si>
-  <si>
-    <t>[0.9000000000000002, 0.8500000000000002, 0.65, 1.0]</t>
-  </si>
-  <si>
-    <t>[0.7000000000000001, 0.8500000000000002, 0.7500000000000001]</t>
-  </si>
-  <si>
-    <t>[0.9000000000000002, 0.7000000000000001]</t>
-  </si>
-  <si>
-    <t>[0.8000000000000002, 0.65]</t>
-  </si>
-  <si>
-    <t>[21.05222222222222]</t>
-  </si>
-  <si>
-    <t>[38.25000000000001, 31.900000000000016, 31.578333333333337]</t>
-  </si>
-  <si>
-    <t>[39.47291666666666, 43.50000000000001]</t>
+    <t>[0.6, 0.9000000000000002, 0.9000000000000002, 1.0]</t>
+  </si>
+  <si>
+    <t>[0.9500000000000003, 0.65]</t>
+  </si>
+  <si>
+    <t>[0.7000000000000001, 0.7000000000000001, 0.6, 0.7000000000000001]</t>
+  </si>
+  <si>
+    <t>[0.8500000000000002, 0.6, 0.9500000000000003]</t>
+  </si>
+  <si>
+    <t>[0.8500000000000002, 1.0, 0.7500000000000001]</t>
+  </si>
+  <si>
+    <t>[28.946805555555564, 42.104444444444454]</t>
+  </si>
+  <si>
+    <t>[17.550000000000008]</t>
+  </si>
+  <si>
+    <t>[34.47000000000001, 20.400000000000006, 34.209861111111124, 26.315277777777776]</t>
+  </si>
+  <si>
+    <t>[18.420694444444447]</t>
+  </si>
+  <si>
+    <t>[26.315277777777787, 31.578333333333347, 57.750000000000014, 18.105000000000004]</t>
+  </si>
+  <si>
+    <t>[42.104444444444454, 39.47291666666668]</t>
+  </si>
+  <si>
+    <t>[42.104444444444454]</t>
+  </si>
+  <si>
+    <t>[34.20986111111112]</t>
+  </si>
+  <si>
+    <t>[39.47291666666667, 21.052222222222227, 28.946805555555557, 48.75]</t>
+  </si>
+  <si>
+    <t>[47.3675]</t>
+  </si>
+  <si>
+    <t>[14.400000000000002]</t>
+  </si>
+  <si>
+    <t>[41.60000000000001, 23.683750000000007, 13.200000000000003]</t>
+  </si>
+  <si>
+    <t>[44.735972222222216, 25.00000000000001, 34.20986111111112]</t>
+  </si>
+  <si>
+    <t>[28.80000000000001]</t>
+  </si>
+  <si>
+    <t>[23.120000000000008, 36.84138888888889, 34.209861111111124, 45.000000000000014]</t>
+  </si>
+  <si>
+    <t>[37.000000000000014, 42.13000000000002]</t>
+  </si>
+  <si>
+    <t>[22.5]</t>
+  </si>
+  <si>
+    <t>[12.320000000000006, 31.578333333333337]</t>
+  </si>
+  <si>
+    <t>[13.004999999999997, 14.080000000000005, 34.20986111111111, 33.750000000000014]</t>
+  </si>
+  <si>
+    <t>[36.8413888888889, 23.68375, 31.900000000000016]</t>
+  </si>
+  <si>
+    <t>[12.780000000000006]</t>
+  </si>
+  <si>
+    <t>[11.440000000000001, 31.578333333333347, 33.75, 7.920000000000003]</t>
+  </si>
+  <si>
+    <t>[25.35, 22.500000000000004]</t>
+  </si>
+  <si>
+    <t>[49.790000000000006, 21.675000000000004, 9.2]</t>
+  </si>
+  <si>
+    <t>[12.78]</t>
+  </si>
+  <si>
+    <t>[20.400000000000006]</t>
+  </si>
+  <si>
+    <t>[53.90000000000002]</t>
+  </si>
+  <si>
+    <t>[8.400000000000007, 45.0]</t>
+  </si>
+  <si>
+    <t>[35.00000000000001]</t>
+  </si>
+  <si>
+    <t>[26.250000000000007]</t>
   </si>
   <si>
     <t>[36.841388888888886]</t>
   </si>
   <si>
-    <t>[20.24]</t>
-  </si>
-  <si>
-    <t>[22.500000000000004, 20.250000000000004]</t>
-  </si>
-  <si>
-    <t>[15.600000000000001, 25.600000000000005, 23.400000000000002]</t>
-  </si>
-  <si>
-    <t>[22.5]</t>
-  </si>
-  <si>
-    <t>[26.315277777777787]</t>
-  </si>
-  <si>
-    <t>[10.800000000000002, 47.3675]</t>
-  </si>
-  <si>
-    <t>[11.25, 36.8413888888889, 28.946805555555567]</t>
-  </si>
-  <si>
-    <t>[11.440000000000003]</t>
-  </si>
-  <si>
-    <t>[31.200000000000003, 37.05]</t>
-  </si>
-  <si>
-    <t>[38.25, 14.720000000000011, 27.00000000000001, 42.104444444444454]</t>
-  </si>
-  <si>
-    <t>[39.47291666666668]</t>
-  </si>
-  <si>
-    <t>[25.760000000000005, 22.5]</t>
-  </si>
-  <si>
-    <t>[21.052222222222227, 35.000000000000014]</t>
-  </si>
-  <si>
-    <t>[20.400000000000006, 14.400000000000007]</t>
-  </si>
-  <si>
-    <t>[25.60000000000001]</t>
-  </si>
-  <si>
-    <t>[18.420694444444447]</t>
-  </si>
-  <si>
-    <t>[23.68375000000001]</t>
-  </si>
-  <si>
-    <t>[27.00000000000001, 44.73597222222224]</t>
-  </si>
-  <si>
-    <t>[34.65000000000002, 28.946805555555557, 26.315277777777787]</t>
-  </si>
-  <si>
-    <t>[10.720000000000006]</t>
-  </si>
-  <si>
-    <t>[69.30000000000003, 12.32, 39.47291666666668, 36.400000000000006, 17.340000000000003]</t>
-  </si>
-  <si>
-    <t>[34.80000000000002]</t>
-  </si>
-  <si>
-    <t>[21.052222222222227, 42.104444444444454]</t>
-  </si>
-  <si>
-    <t>[29.44000000000001, 45.960000000000015]</t>
-  </si>
-  <si>
-    <t>[34.20986111111113, 7.040000000000004]</t>
+    <t>[35.00000000000001, 49.30000000000002]</t>
+  </si>
+  <si>
+    <t>[15.789166666666665, 31.578333333333347, 45.96000000000002, 36.841388888888886]</t>
+  </si>
+  <si>
+    <t>[35.20000000000002, 42.35]</t>
+  </si>
+  <si>
+    <t>[28.946805555555557, 16.080000000000002, 22.5, 31.900000000000002]</t>
+  </si>
+  <si>
+    <t>[25.760000000000005]</t>
+  </si>
+  <si>
+    <t>[15.895000000000007, 15.789166666666665, 28.946805555555567]</t>
+  </si>
+  <si>
+    <t>[31.578333333333344, 10.56, 52.50000000000001]</t>
   </si>
   <si>
     <t>[35.20000000000002]</t>
-  </si>
-  <si>
-    <t>[11.25000000000001, 26.315277777777787]</t>
-  </si>
-  <si>
-    <t>[33.75, 18.420694444444443]</t>
-  </si>
-  <si>
-    <t>[34.20986111111112, 49.30000000000001, 39.47291666666668]</t>
-  </si>
-  <si>
-    <t>[29.250000000000007]</t>
-  </si>
-  <si>
-    <t>[44.73597222222224, 40.7]</t>
-  </si>
-  <si>
-    <t>[18.0, 42.13000000000002, 7.359999999999998, 18.420694444444447]</t>
-  </si>
-  <si>
-    <t>[29.25, 40.600000000000016, 12.320000000000004]</t>
-  </si>
-  <si>
-    <t>[41.600000000000016, 12.320000000000004, 11.040000000000001, 53.9]</t>
-  </si>
-  <si>
-    <t>[20.400000000000006]</t>
-  </si>
-  <si>
-    <t>[30.000000000000007, 19.500000000000007, 23.683750000000007]</t>
-  </si>
-  <si>
-    <t>[59.20000000000002, 25.0]</t>
-  </si>
-  <si>
-    <t>[42.35000000000001, 9.680000000000001]</t>
-  </si>
-  <si>
-    <t>[42.35000000000001]</t>
   </si>
 </sst>
 </file>
@@ -1255,16 +1213,16 @@
         <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E7" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="F7">
-        <v>21.05222222222222</v>
+        <v>71.05125000000001</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1275,16 +1233,16 @@
         <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E8" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="F8">
-        <v>101.7283333333334</v>
+        <v>17.55000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1295,16 +1253,16 @@
         <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D9" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E9" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="F9">
-        <v>82.97291666666666</v>
+        <v>115.3951388888889</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1312,19 +1270,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E10" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="F10">
-        <v>36.84138888888889</v>
+        <v>18.42069444444445</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1332,19 +1290,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="D11" t="s">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="E11" t="s">
-        <v>211</v>
+        <v>106</v>
       </c>
       <c r="F11">
-        <v>20.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1355,16 +1313,16 @@
         <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D12" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="E12" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="F12">
-        <v>42.75000000000001</v>
+        <v>133.7486111111111</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1372,19 +1330,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D13" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E13" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="F13">
-        <v>64.60000000000001</v>
+        <v>81.57736111111113</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1412,19 +1370,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="D15" t="s">
-        <v>175</v>
+        <v>106</v>
       </c>
       <c r="E15" t="s">
-        <v>214</v>
+        <v>106</v>
       </c>
       <c r="F15">
-        <v>22.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1452,19 +1410,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C17" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D17" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="E17" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="F17">
-        <v>26.31527777777779</v>
+        <v>42.10444444444445</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1472,19 +1430,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C18" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D18" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E18" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="F18">
-        <v>58.1675</v>
+        <v>34.20986111111112</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1492,19 +1450,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C19" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D19" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E19" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="F19">
-        <v>77.03819444444447</v>
+        <v>138.2219444444445</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1512,19 +1470,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C20" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D20" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E20" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="F20">
-        <v>11.44</v>
+        <v>47.3675</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1732,19 +1690,19 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="E31" t="s">
-        <v>106</v>
+        <v>207</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1752,19 +1710,19 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C32" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D32" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E32" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="F32">
-        <v>68.25</v>
+        <v>78.48375000000001</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1772,19 +1730,19 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C33" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D33" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E33" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="F33">
-        <v>122.0744444444445</v>
+        <v>103.9458333333334</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1792,19 +1750,19 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C34" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="D34" t="s">
-        <v>187</v>
+        <v>106</v>
       </c>
       <c r="E34" t="s">
-        <v>221</v>
+        <v>106</v>
       </c>
       <c r="F34">
-        <v>39.47291666666668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1812,19 +1770,19 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C35" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="D35" t="s">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="E35" t="s">
-        <v>222</v>
+        <v>106</v>
       </c>
       <c r="F35">
-        <v>48.26000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1832,19 +1790,19 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C36" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D36" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="E36" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="F36">
-        <v>56.05222222222224</v>
+        <v>28.80000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1852,19 +1810,19 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C37" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D37" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="E37" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="F37">
-        <v>34.80000000000001</v>
+        <v>139.17125</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1872,19 +1830,19 @@
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C38" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D38" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="E38" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="F38">
-        <v>25.60000000000001</v>
+        <v>79.13000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1912,19 +1870,19 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C40" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="D40" t="s">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="E40" t="s">
-        <v>226</v>
+        <v>106</v>
       </c>
       <c r="F40">
-        <v>18.42069444444445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1932,19 +1890,19 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C41" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D41" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="E41" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="F41">
-        <v>23.68375000000001</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1952,19 +1910,19 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C42" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D42" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="E42" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="F42">
-        <v>71.73597222222224</v>
+        <v>43.89833333333334</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1972,19 +1930,19 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C43" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D43" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E43" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="F43">
-        <v>89.91208333333336</v>
+        <v>95.04486111111112</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2212,19 +2170,19 @@
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="C55" t="s">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="D55" t="s">
-        <v>182</v>
+        <v>106</v>
       </c>
       <c r="E55" t="s">
-        <v>230</v>
+        <v>106</v>
       </c>
       <c r="F55">
-        <v>10.72000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2232,19 +2190,19 @@
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C56" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D56" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E56" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="F56">
-        <v>174.8329166666667</v>
+        <v>92.42513888888892</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2252,19 +2210,19 @@
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C57" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="D57" t="s">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c r="E57" t="s">
-        <v>106</v>
+        <v>217</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>12.78000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2272,19 +2230,19 @@
         <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C58" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D58" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E58" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="F58">
-        <v>34.80000000000002</v>
+        <v>84.68833333333335</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2292,19 +2250,19 @@
         <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="C59" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="D59" t="s">
-        <v>189</v>
+        <v>106</v>
       </c>
       <c r="E59" t="s">
-        <v>233</v>
+        <v>106</v>
       </c>
       <c r="F59">
-        <v>63.15666666666668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2312,19 +2270,19 @@
         <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C60" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="D60" t="s">
-        <v>106</v>
+        <v>187</v>
       </c>
       <c r="E60" t="s">
-        <v>106</v>
+        <v>219</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>47.85000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2332,19 +2290,19 @@
         <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C61" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D61" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E61" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="F61">
-        <v>75.40000000000002</v>
+        <v>80.66500000000001</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2352,19 +2310,19 @@
         <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C62" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="D62" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="E62" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="F62">
-        <v>41.24986111111114</v>
+        <v>12.78</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2372,19 +2330,19 @@
         <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C63" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="D63" t="s">
-        <v>182</v>
+        <v>106</v>
       </c>
       <c r="E63" t="s">
-        <v>236</v>
+        <v>106</v>
       </c>
       <c r="F63">
-        <v>35.20000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2392,19 +2350,19 @@
         <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C64" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="D64" t="s">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c r="E64" t="s">
-        <v>106</v>
+        <v>222</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>20.40000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2412,19 +2370,19 @@
         <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C65" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D65" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E65" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="F65">
-        <v>37.56527777777779</v>
+        <v>53.90000000000002</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2432,19 +2390,19 @@
         <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C66" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D66" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E66" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="F66">
-        <v>52.17069444444444</v>
+        <v>53.40000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2452,19 +2410,19 @@
         <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C67" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="D67" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="E67" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="F67">
-        <v>122.9827777777778</v>
+        <v>35.00000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2472,19 +2430,19 @@
         <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="C68" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="D68" t="s">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="E68" t="s">
-        <v>106</v>
+        <v>226</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>26.25000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2492,19 +2450,19 @@
         <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C69" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="D69" t="s">
-        <v>106</v>
+        <v>175</v>
       </c>
       <c r="E69" t="s">
-        <v>106</v>
+        <v>227</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>36.84138888888889</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2692,19 +2650,19 @@
         <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C79" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="D79" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E79" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="F79">
-        <v>29.25000000000001</v>
+        <v>84.30000000000003</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2712,19 +2670,19 @@
         <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C80" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D80" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E80" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="F80">
-        <v>85.43597222222223</v>
+        <v>130.1688888888889</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2732,19 +2690,19 @@
         <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="C81" t="s">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="D81" t="s">
-        <v>201</v>
+        <v>106</v>
       </c>
       <c r="E81" t="s">
-        <v>242</v>
+        <v>106</v>
       </c>
       <c r="F81">
-        <v>85.91069444444446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2772,19 +2730,19 @@
         <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C83" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="D83" t="s">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="E83" t="s">
-        <v>106</v>
+        <v>204</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>34.20986111111112</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2792,19 +2750,19 @@
         <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C84" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D84" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E84" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="F84">
-        <v>82.17000000000003</v>
+        <v>77.55000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2812,19 +2770,19 @@
         <v>89</v>
       </c>
       <c r="B85" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C85" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D85" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="E85" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="F85">
-        <v>118.86</v>
+        <v>99.42680555555556</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2832,19 +2790,19 @@
         <v>90</v>
       </c>
       <c r="B86" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C86" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D86" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E86" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="F86">
-        <v>20.40000000000001</v>
+        <v>25.76000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2892,19 +2850,19 @@
         <v>93</v>
       </c>
       <c r="B89" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="C89" t="s">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="D89" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="E89" t="s">
-        <v>246</v>
+        <v>106</v>
       </c>
       <c r="F89">
-        <v>73.18375000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2912,19 +2870,19 @@
         <v>94</v>
       </c>
       <c r="B90" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="C90" t="s">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="D90" t="s">
-        <v>106</v>
+        <v>195</v>
       </c>
       <c r="E90" t="s">
-        <v>106</v>
+        <v>233</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>60.63097222222224</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2932,19 +2890,19 @@
         <v>95</v>
       </c>
       <c r="B91" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C91" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D91" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E91" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="F91">
-        <v>84.20000000000002</v>
+        <v>94.63833333333335</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2952,19 +2910,19 @@
         <v>96</v>
       </c>
       <c r="B92" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="C92" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="D92" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="E92" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="F92">
-        <v>52.03000000000001</v>
+        <v>35.20000000000002</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2972,19 +2930,19 @@
         <v>97</v>
       </c>
       <c r="B93" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="C93" t="s">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="D93" t="s">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="E93" t="s">
-        <v>249</v>
+        <v>106</v>
       </c>
       <c r="F93">
-        <v>42.35000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6">
